--- a/test_tower_predictions.xlsx
+++ b/test_tower_predictions.xlsx
@@ -760,19 +760,19 @@
         <v>-73.10534491296858</v>
       </c>
       <c r="AD2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>-159.3457493252224</v>
+        <v>-63.26763101945701</v>
       </c>
       <c r="AF2">
-        <v>-62.49636842324861</v>
+        <v>-29.35817137144038</v>
       </c>
       <c r="AG2">
-        <v>423179.3854346747</v>
+        <v>423275.4635529805</v>
       </c>
       <c r="AH2">
-        <v>7575855.990621577</v>
+        <v>7575889.128818628</v>
       </c>
       <c r="AI2">
         <v>55</v>
@@ -873,16 +873,16 @@
         <v>1</v>
       </c>
       <c r="AE3">
-        <v>-9.63903896115251</v>
+        <v>-74.47391423209173</v>
       </c>
       <c r="AF3">
-        <v>321.4866856978145</v>
+        <v>295.0956353025076</v>
       </c>
       <c r="AG3">
-        <v>422936.4788220389</v>
+        <v>422871.6439467679</v>
       </c>
       <c r="AH3">
-        <v>7575995.409640698</v>
+        <v>7575969.018590302</v>
       </c>
       <c r="AI3">
         <v>55</v>
@@ -980,19 +980,19 @@
         <v>-73.10534491296858</v>
       </c>
       <c r="AD4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>-198.4935472276476</v>
+        <v>-314.9462012042264</v>
       </c>
       <c r="AF4">
-        <v>-76.28545489921697</v>
+        <v>-60.50775790055614</v>
       </c>
       <c r="AG4">
-        <v>423140.2376367723</v>
+        <v>423023.7849827958</v>
       </c>
       <c r="AH4">
-        <v>7575842.201535101</v>
+        <v>7575857.9792321</v>
       </c>
       <c r="AI4">
         <v>55</v>
@@ -1093,16 +1093,16 @@
         <v>1</v>
       </c>
       <c r="AE5">
-        <v>15.24922918740281</v>
+        <v>-102.2383409064124</v>
       </c>
       <c r="AF5">
-        <v>-0.6549481826004531</v>
+        <v>-44.72301917098104</v>
       </c>
       <c r="AG5">
-        <v>422961.3670901874</v>
+        <v>422843.8795200936</v>
       </c>
       <c r="AH5">
-        <v>7575673.268006817</v>
+        <v>7575629.199935829</v>
       </c>
       <c r="AI5">
         <v>55</v>
@@ -1203,16 +1203,16 @@
         <v>1</v>
       </c>
       <c r="AE6">
-        <v>-114.5843906502898</v>
+        <v>-82.41988821559788</v>
       </c>
       <c r="AF6">
-        <v>-351.4562352782813</v>
+        <v>-246.8876298583919</v>
       </c>
       <c r="AG6">
-        <v>427130.0901493497</v>
+        <v>427162.2546517844</v>
       </c>
       <c r="AH6">
-        <v>7565296.697136722</v>
+        <v>7565401.265742142</v>
       </c>
       <c r="AI6">
         <v>55</v>
@@ -1313,16 +1313,16 @@
         <v>1</v>
       </c>
       <c r="AE7">
-        <v>34.57201934390489</v>
+        <v>5.440694462429825</v>
       </c>
       <c r="AF7">
-        <v>5.034949262566553</v>
+        <v>18.5781531179785</v>
       </c>
       <c r="AG7">
-        <v>427253.0873283439</v>
+        <v>427223.9560034624</v>
       </c>
       <c r="AH7">
-        <v>7565267.610604263</v>
+        <v>7565281.153808118</v>
       </c>
       <c r="AI7">
         <v>55</v>
@@ -1423,16 +1423,16 @@
         <v>1</v>
       </c>
       <c r="AE8">
-        <v>-216.3898213698497</v>
+        <v>-449.7844381572426</v>
       </c>
       <c r="AF8">
-        <v>33.41282650412601</v>
+        <v>7.398818246591984</v>
       </c>
       <c r="AG8">
-        <v>427527.0818326302</v>
+        <v>427293.6872158428</v>
       </c>
       <c r="AH8">
-        <v>7565211.045368505</v>
+        <v>7565185.031360247</v>
       </c>
       <c r="AI8">
         <v>55</v>
@@ -1533,16 +1533,16 @@
         <v>1</v>
       </c>
       <c r="AE9">
-        <v>20.50498597256255</v>
+        <v>-3.843175756724028</v>
       </c>
       <c r="AF9">
-        <v>-297.7833526618486</v>
+        <v>-189.5397454693075</v>
       </c>
       <c r="AG9">
-        <v>427684.0236709726</v>
+        <v>427659.6755092433</v>
       </c>
       <c r="AH9">
-        <v>7565328.847060338</v>
+        <v>7565437.09066753</v>
       </c>
       <c r="AI9">
         <v>55</v>
@@ -1643,16 +1643,16 @@
         <v>1</v>
       </c>
       <c r="AE10">
-        <v>-75.11762748237078</v>
+        <v>-54.44917138686002</v>
       </c>
       <c r="AF10">
-        <v>-365.1255455629938</v>
+        <v>-380.2633889359083</v>
       </c>
       <c r="AG10">
-        <v>427169.5569125176</v>
+        <v>427190.2253686131</v>
       </c>
       <c r="AH10">
-        <v>7565283.027826437</v>
+        <v>7565267.889983064</v>
       </c>
       <c r="AI10">
         <v>55</v>
@@ -1753,16 +1753,16 @@
         <v>1</v>
       </c>
       <c r="AE11">
-        <v>51.32540960077128</v>
+        <v>6.472139323645862</v>
       </c>
       <c r="AF11">
-        <v>-22.16913184553566</v>
+        <v>-39.34307050696035</v>
       </c>
       <c r="AG11">
-        <v>427269.8407186007</v>
+        <v>427224.9874483236</v>
       </c>
       <c r="AH11">
-        <v>7565240.406523155</v>
+        <v>7565223.232584493</v>
       </c>
       <c r="AI11">
         <v>55</v>
@@ -1863,16 +1863,16 @@
         <v>1</v>
       </c>
       <c r="AE12">
-        <v>-260.2041506927317</v>
+        <v>-216.1966745072555</v>
       </c>
       <c r="AF12">
-        <v>35.56328735564885</v>
+        <v>-26.34593232258894</v>
       </c>
       <c r="AG12">
-        <v>427483.2675033073</v>
+        <v>427527.2749794928</v>
       </c>
       <c r="AH12">
-        <v>7565213.195829356</v>
+        <v>7565151.286609678</v>
       </c>
       <c r="AI12">
         <v>55</v>
@@ -1973,16 +1973,16 @@
         <v>1</v>
       </c>
       <c r="AE13">
-        <v>-70.45979873369876</v>
+        <v>-76.77523040739374</v>
       </c>
       <c r="AF13">
-        <v>-413.5434426860576</v>
+        <v>-341.6149238577734</v>
       </c>
       <c r="AG13">
-        <v>427593.0588862663</v>
+        <v>427586.7434545927</v>
       </c>
       <c r="AH13">
-        <v>7565213.086970313</v>
+        <v>7565285.015489141</v>
       </c>
       <c r="AI13">
         <v>55</v>
@@ -2083,16 +2083,16 @@
         <v>1</v>
       </c>
       <c r="AE14">
-        <v>-54.33501631360788</v>
+        <v>-43.23835880278571</v>
       </c>
       <c r="AF14">
-        <v>-225.6725249243607</v>
+        <v>-224.3161528932575</v>
       </c>
       <c r="AG14">
-        <v>427190.3395236864</v>
+        <v>427201.4361811972</v>
       </c>
       <c r="AH14">
-        <v>7565422.480847076</v>
+        <v>7565423.837219107</v>
       </c>
       <c r="AI14">
         <v>55</v>
@@ -2193,16 +2193,16 @@
         <v>1</v>
       </c>
       <c r="AE15">
-        <v>-85.0570080520729</v>
+        <v>-47.81259782629896</v>
       </c>
       <c r="AF15">
-        <v>668.2647017550996</v>
+        <v>423.5847021691053</v>
       </c>
       <c r="AG15">
-        <v>427133.4583009479</v>
+        <v>427170.7027111737</v>
       </c>
       <c r="AH15">
-        <v>7565930.840356755</v>
+        <v>7565686.16035717</v>
       </c>
       <c r="AI15">
         <v>55</v>
@@ -2303,16 +2303,16 @@
         <v>1</v>
       </c>
       <c r="AE16">
-        <v>-40.42331960391245</v>
+        <v>-96.8694061457375</v>
       </c>
       <c r="AF16">
-        <v>-115.6753082844827</v>
+        <v>-95.56152429733156</v>
       </c>
       <c r="AG16">
-        <v>427204.2512203961</v>
+        <v>427147.8051338542</v>
       </c>
       <c r="AH16">
-        <v>7565532.478063716</v>
+        <v>7565552.591847703</v>
       </c>
       <c r="AI16">
         <v>55</v>
@@ -2413,16 +2413,16 @@
         <v>1</v>
       </c>
       <c r="AE17">
-        <v>-3.014353880964629</v>
+        <v>4.274763036318362</v>
       </c>
       <c r="AF17">
-        <v>290.5813464963275</v>
+        <v>280.1646162197875</v>
       </c>
       <c r="AG17">
-        <v>427215.500955119</v>
+        <v>427222.7900720363</v>
       </c>
       <c r="AH17">
-        <v>7565553.157001496</v>
+        <v>7565542.74027122</v>
       </c>
       <c r="AI17">
         <v>55</v>
@@ -2523,16 +2523,16 @@
         <v>1</v>
       </c>
       <c r="AE18">
-        <v>6.156008027770772</v>
+        <v>-74.67514198955294</v>
       </c>
       <c r="AF18">
-        <v>246.5389043111233</v>
+        <v>101.3542331098694</v>
       </c>
       <c r="AG18">
-        <v>427669.6746930278</v>
+        <v>427588.8435430105</v>
       </c>
       <c r="AH18">
-        <v>7565873.169317311</v>
+        <v>7565727.98464611</v>
       </c>
       <c r="AI18">
         <v>55</v>
@@ -2633,16 +2633,16 @@
         <v>1</v>
       </c>
       <c r="AE19">
-        <v>-91.85126634668453</v>
+        <v>-40.25936656816899</v>
       </c>
       <c r="AF19">
-        <v>-53.3991439858664</v>
+        <v>-81.57757664295555</v>
       </c>
       <c r="AG19">
-        <v>427152.8232736533</v>
+        <v>427204.4151734318</v>
       </c>
       <c r="AH19">
-        <v>7565594.754228014</v>
+        <v>7565566.575795357</v>
       </c>
       <c r="AI19">
         <v>55</v>
@@ -2743,16 +2743,16 @@
         <v>1</v>
       </c>
       <c r="AE20">
-        <v>-81.65776529677684</v>
+        <v>-131.3912679466398</v>
       </c>
       <c r="AF20">
-        <v>610.7146609206418</v>
+        <v>344.5074343537991</v>
       </c>
       <c r="AG20">
-        <v>427136.8575437032</v>
+        <v>427087.1240410534</v>
       </c>
       <c r="AH20">
-        <v>7565873.29031592</v>
+        <v>7565607.083089354</v>
       </c>
       <c r="AI20">
         <v>55</v>
@@ -2853,16 +2853,16 @@
         <v>1</v>
       </c>
       <c r="AE21">
-        <v>-116.3218972067113</v>
+        <v>-141.7848694718739</v>
       </c>
       <c r="AF21">
-        <v>62.71525590400935</v>
+        <v>10.79217144906667</v>
       </c>
       <c r="AG21">
-        <v>427547.1967877933</v>
+        <v>427521.7338155282</v>
       </c>
       <c r="AH21">
-        <v>7565689.345668904</v>
+        <v>7565637.422584449</v>
       </c>
       <c r="AI21">
         <v>55</v>
@@ -2963,16 +2963,16 @@
         <v>1</v>
       </c>
       <c r="AE22">
-        <v>-79.92522534438598</v>
+        <v>-176.0569365163709</v>
       </c>
       <c r="AF22">
-        <v>-220.5834086151292</v>
+        <v>-197.9284991444752</v>
       </c>
       <c r="AG22">
-        <v>427164.7493146556</v>
+        <v>427068.6176034836</v>
       </c>
       <c r="AH22">
-        <v>7565427.569963384</v>
+        <v>7565450.224872855</v>
       </c>
       <c r="AI22">
         <v>55</v>
@@ -3073,16 +3073,16 @@
         <v>1</v>
       </c>
       <c r="AE23">
-        <v>-21.3128043147792</v>
+        <v>-108.1397381977709</v>
       </c>
       <c r="AF23">
-        <v>337.0062070937413</v>
+        <v>322.9860865617389</v>
       </c>
       <c r="AG23">
-        <v>427197.2025046852</v>
+        <v>427110.3755708022</v>
       </c>
       <c r="AH23">
-        <v>7565599.581862094</v>
+        <v>7565585.561741562</v>
       </c>
       <c r="AI23">
         <v>55</v>
@@ -3183,16 +3183,16 @@
         <v>1</v>
       </c>
       <c r="AE24">
-        <v>-111.376788282884</v>
+        <v>-139.2385135391816</v>
       </c>
       <c r="AF24">
-        <v>83.58745422531003</v>
+        <v>32.58969334800548</v>
       </c>
       <c r="AG24">
-        <v>427552.1418967171</v>
+        <v>427524.2801714608</v>
       </c>
       <c r="AH24">
-        <v>7565710.217867224</v>
+        <v>7565659.220106347</v>
       </c>
       <c r="AI24">
         <v>55</v>
@@ -3293,16 +3293,16 @@
         <v>1</v>
       </c>
       <c r="AE25">
-        <v>-81.71757273692998</v>
+        <v>25.67476241454256</v>
       </c>
       <c r="AF25">
-        <v>-514.3485248127555</v>
+        <v>-299.3242350059608</v>
       </c>
       <c r="AG25">
-        <v>436579.1451852631</v>
+        <v>436686.5375204145</v>
       </c>
       <c r="AH25">
-        <v>7550799.567341187</v>
+        <v>7551014.591630993</v>
       </c>
       <c r="AI25">
         <v>55</v>
@@ -3403,16 +3403,16 @@
         <v>1</v>
       </c>
       <c r="AE26">
-        <v>-108.5960585279643</v>
+        <v>-77.19149897970172</v>
       </c>
       <c r="AF26">
-        <v>-511.5364810729118</v>
+        <v>-308.83773257602</v>
       </c>
       <c r="AG26">
-        <v>436552.266699472</v>
+        <v>436583.6712590203</v>
       </c>
       <c r="AH26">
-        <v>7550802.379384927</v>
+        <v>7551005.078133424</v>
       </c>
       <c r="AI26">
         <v>55</v>
@@ -3513,16 +3513,16 @@
         <v>1</v>
       </c>
       <c r="AE27">
-        <v>-52.24286155032561</v>
+        <v>17.28435743592908</v>
       </c>
       <c r="AF27">
-        <v>-564.7510486181421</v>
+        <v>-411.4695233306321</v>
       </c>
       <c r="AG27">
-        <v>436608.6198964497</v>
+        <v>436678.1471154359</v>
       </c>
       <c r="AH27">
-        <v>7550749.164817382</v>
+        <v>7550902.446342669</v>
       </c>
       <c r="AI27">
         <v>55</v>
@@ -3623,16 +3623,16 @@
         <v>1</v>
       </c>
       <c r="AE28">
-        <v>-110.2249405412374</v>
+        <v>-25.08887413194517</v>
       </c>
       <c r="AF28">
-        <v>-491.1782762027889</v>
+        <v>-422.3003012796017</v>
       </c>
       <c r="AG28">
-        <v>436550.6378174587</v>
+        <v>436635.773883868</v>
       </c>
       <c r="AH28">
-        <v>7550822.737589797</v>
+        <v>7550891.61556472</v>
       </c>
       <c r="AI28">
         <v>55</v>
@@ -3733,16 +3733,16 @@
         <v>1</v>
       </c>
       <c r="AE29">
-        <v>85.11835979859535</v>
+        <v>-48.45262221019151</v>
       </c>
       <c r="AF29">
-        <v>323.7439937656616</v>
+        <v>104.5349623422356</v>
       </c>
       <c r="AG29">
-        <v>436745.9811177986</v>
+        <v>436612.4101357898</v>
       </c>
       <c r="AH29">
-        <v>7551637.659859765</v>
+        <v>7551418.450828342</v>
       </c>
       <c r="AI29">
         <v>55</v>
@@ -3843,16 +3843,16 @@
         <v>1</v>
       </c>
       <c r="AE30">
-        <v>-139.8100666115731</v>
+        <v>-39.07921472465613</v>
       </c>
       <c r="AF30">
-        <v>-442.080373375052</v>
+        <v>-393.4849496178363</v>
       </c>
       <c r="AG30">
-        <v>436521.0526913884</v>
+        <v>436621.7835432753</v>
       </c>
       <c r="AH30">
-        <v>7550871.835492625</v>
+        <v>7550920.430916382</v>
       </c>
       <c r="AI30">
         <v>55</v>
@@ -3950,19 +3950,19 @@
         <v>198.3780764071271</v>
       </c>
       <c r="AD31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE31">
-        <v>-451.6873253716363</v>
+        <v>-363.8271629765222</v>
       </c>
       <c r="AF31">
-        <v>-306.6647914053453</v>
+        <v>-31.01812707614464</v>
       </c>
       <c r="AG31">
-        <v>422887.0438586283</v>
+        <v>422974.9040210234</v>
       </c>
       <c r="AH31">
-        <v>7575611.822198595</v>
+        <v>7575887.468862924</v>
       </c>
       <c r="AI31">
         <v>55</v>
@@ -4063,16 +4063,16 @@
         <v>1</v>
       </c>
       <c r="AE32">
-        <v>-23.25731879835984</v>
+        <v>-100.6089411475263</v>
       </c>
       <c r="AF32">
-        <v>613.5809271732427</v>
+        <v>259.2400249668908</v>
       </c>
       <c r="AG32">
-        <v>423365.6627522017</v>
+        <v>423288.3111298525</v>
       </c>
       <c r="AH32">
-        <v>7576024.648259173</v>
+        <v>7575670.307356967</v>
       </c>
       <c r="AI32">
         <v>55</v>
@@ -4173,16 +4173,16 @@
         <v>1</v>
       </c>
       <c r="AE33">
-        <v>-267.5545412334195</v>
+        <v>-494.9105952166802</v>
       </c>
       <c r="AF33">
-        <v>5.876813443168831</v>
+        <v>-55.03033102541797</v>
       </c>
       <c r="AG33">
-        <v>422678.5633197666</v>
+        <v>422451.2072657833</v>
       </c>
       <c r="AH33">
-        <v>7575679.799768443</v>
+        <v>7575618.892623974</v>
       </c>
       <c r="AI33">
         <v>55</v>
@@ -4280,19 +4280,19 @@
         <v>-289.0626021055505</v>
       </c>
       <c r="AD34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE34">
-        <v>-329.9944898817274</v>
+        <v>-391.9856635788223</v>
       </c>
       <c r="AF34">
-        <v>-87.16307035102972</v>
+        <v>-13.24434166773107</v>
       </c>
       <c r="AG34">
-        <v>423008.7366941182</v>
+        <v>422946.7455204211</v>
       </c>
       <c r="AH34">
-        <v>7575831.323919649</v>
+        <v>7575905.242648332</v>
       </c>
       <c r="AI34">
         <v>55</v>
@@ -4393,16 +4393,16 @@
         <v>1</v>
       </c>
       <c r="AE35">
-        <v>-127.4209593981142</v>
+        <v>-264.3191766569456</v>
       </c>
       <c r="AF35">
-        <v>583.4555746417927</v>
+        <v>251.342813071416</v>
       </c>
       <c r="AG35">
-        <v>423261.4991116019</v>
+        <v>423124.600894343</v>
       </c>
       <c r="AH35">
-        <v>7575994.522906641</v>
+        <v>7575662.410145071</v>
       </c>
       <c r="AI35">
         <v>55</v>
@@ -4503,16 +4503,16 @@
         <v>1</v>
       </c>
       <c r="AE36">
-        <v>13.84379787407034</v>
+        <v>34.13156159292896</v>
       </c>
       <c r="AF36">
-        <v>-14.2079862354709</v>
+        <v>4.902493937767855</v>
       </c>
       <c r="AG36">
-        <v>422959.9616588741</v>
+        <v>422980.2494225929</v>
       </c>
       <c r="AH36">
-        <v>7575659.714968764</v>
+        <v>7575678.825448938</v>
       </c>
       <c r="AI36">
         <v>55</v>
@@ -4613,16 +4613,16 @@
         <v>1</v>
       </c>
       <c r="AE37">
-        <v>-110.0869757876699</v>
+        <v>-74.99187981665794</v>
       </c>
       <c r="AF37">
-        <v>-385.745263518425</v>
+        <v>-257.1413383551161</v>
       </c>
       <c r="AG37">
-        <v>422835.0891662124</v>
+        <v>422870.1842621834</v>
       </c>
       <c r="AH37">
-        <v>7575786.426642481</v>
+        <v>7575915.030567645</v>
       </c>
       <c r="AI37">
         <v>55</v>
@@ -4723,16 +4723,16 @@
         <v>1</v>
       </c>
       <c r="AE38">
-        <v>-227.6240789887936</v>
+        <v>-14.75568756351007</v>
       </c>
       <c r="AF38">
-        <v>-464.1270944158599</v>
+        <v>-412.1592417582464</v>
       </c>
       <c r="AG38">
-        <v>423153.5281300112</v>
+        <v>423366.3965214365</v>
       </c>
       <c r="AH38">
-        <v>7575955.732937584</v>
+        <v>7576007.700790241</v>
       </c>
       <c r="AI38">
         <v>55</v>
@@ -4830,19 +4830,19 @@
         <v>-1536.304731142707</v>
       </c>
       <c r="AD39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE39">
-        <v>413.0016312775789</v>
+        <v>-212.3025035733768</v>
       </c>
       <c r="AF39">
-        <v>-425.2724921406759</v>
+        <v>-360.499843543339</v>
       </c>
       <c r="AG39">
-        <v>423751.7328152775</v>
+        <v>423126.4286804266</v>
       </c>
       <c r="AH39">
-        <v>7575493.21449786</v>
+        <v>7575557.987146457</v>
       </c>
       <c r="AI39">
         <v>55</v>
@@ -4943,16 +4943,16 @@
         <v>1</v>
       </c>
       <c r="AE40">
-        <v>-197.2947370793382</v>
+        <v>1.386132524906316</v>
       </c>
       <c r="AF40">
-        <v>-531.9007423203292</v>
+        <v>-222.2426192309975</v>
       </c>
       <c r="AG40">
-        <v>423191.6253339206</v>
+        <v>423390.3062035249</v>
       </c>
       <c r="AH40">
-        <v>7574879.166589679</v>
+        <v>7575188.824712768</v>
       </c>
       <c r="AI40">
         <v>55</v>
@@ -5053,16 +5053,16 @@
         <v>1</v>
       </c>
       <c r="AE41">
-        <v>851.253991318485</v>
+        <v>217.0870682422354</v>
       </c>
       <c r="AF41">
-        <v>143.2570875232128</v>
+        <v>-109.9688227471323</v>
       </c>
       <c r="AG41">
-        <v>423797.3718523185</v>
+        <v>423163.2049292423</v>
       </c>
       <c r="AH41">
-        <v>7575817.180042523</v>
+        <v>7575563.954132252</v>
       </c>
       <c r="AI41">
         <v>55</v>
@@ -5160,19 +5160,19 @@
         <v>-1536.304731142707</v>
       </c>
       <c r="AD42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE42">
-        <v>389.9292684484411</v>
+        <v>-259.014732966607</v>
       </c>
       <c r="AF42">
-        <v>-430.8393428029073</v>
+        <v>-368.6880214462278</v>
       </c>
       <c r="AG42">
-        <v>423728.6604524484</v>
+        <v>423079.7164510334</v>
       </c>
       <c r="AH42">
-        <v>7575487.647647197</v>
+        <v>7575549.798968554</v>
       </c>
       <c r="AI42">
         <v>55</v>
@@ -5273,16 +5273,16 @@
         <v>1</v>
       </c>
       <c r="AE43">
-        <v>-158.4868350150816</v>
+        <v>-246.6446028017781</v>
       </c>
       <c r="AF43">
-        <v>-526.9572644093633</v>
+        <v>-274.4123988845293</v>
       </c>
       <c r="AG43">
-        <v>423230.4332359849</v>
+        <v>423142.2754681982</v>
       </c>
       <c r="AH43">
-        <v>7574884.11006759</v>
+        <v>7575136.654933115</v>
       </c>
       <c r="AI43">
         <v>55</v>
@@ -5380,19 +5380,19 @@
         <v>-1536.304731142707</v>
       </c>
       <c r="AD44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE44">
-        <v>399.6855422125922</v>
+        <v>-253.7810077886884</v>
       </c>
       <c r="AF44">
-        <v>-430.8393428029073</v>
+        <v>-358.3455261924111</v>
       </c>
       <c r="AG44">
-        <v>423738.4167262125</v>
+        <v>423084.9501762113</v>
       </c>
       <c r="AH44">
-        <v>7575487.647647197</v>
+        <v>7575560.141463808</v>
       </c>
       <c r="AI44">
         <v>55</v>
@@ -5493,16 +5493,16 @@
         <v>1</v>
       </c>
       <c r="AE45">
-        <v>-184.5417320184717</v>
+        <v>-30.27016205097196</v>
       </c>
       <c r="AF45">
-        <v>-522.7013903656082</v>
+        <v>-206.5420223840931</v>
       </c>
       <c r="AG45">
-        <v>423204.3783389815</v>
+        <v>423358.649908949</v>
       </c>
       <c r="AH45">
-        <v>7574888.365941633</v>
+        <v>7575204.525309616</v>
       </c>
       <c r="AI45">
         <v>55</v>
@@ -5603,16 +5603,16 @@
         <v>1</v>
       </c>
       <c r="AE46">
-        <v>781.9843530974994</v>
+        <v>179.7433416369995</v>
       </c>
       <c r="AF46">
-        <v>133.3269024276768</v>
+        <v>-107.0120684432801</v>
       </c>
       <c r="AG46">
-        <v>423728.1022140975</v>
+        <v>423125.861202637</v>
       </c>
       <c r="AH46">
-        <v>7575807.249857428</v>
+        <v>7575566.910886557</v>
       </c>
       <c r="AI46">
         <v>55</v>
@@ -5710,19 +5710,19 @@
         <v>-1536.304731142707</v>
       </c>
       <c r="AD47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE47">
-        <v>340.3993829797815</v>
+        <v>-312.7811889293394</v>
       </c>
       <c r="AF47">
-        <v>-430.8393428029073</v>
+        <v>-343.3512315687018</v>
       </c>
       <c r="AG47">
-        <v>423679.1305669798</v>
+        <v>423025.9499950706</v>
       </c>
       <c r="AH47">
-        <v>7575487.647647197</v>
+        <v>7575575.135758432</v>
       </c>
       <c r="AI47">
         <v>55</v>
@@ -5823,16 +5823,16 @@
         <v>1</v>
       </c>
       <c r="AE48">
-        <v>-178.3287686087708</v>
+        <v>23.90929060166759</v>
       </c>
       <c r="AF48">
-        <v>-534.5283501406634</v>
+        <v>-200.1824652559021</v>
       </c>
       <c r="AG48">
-        <v>423210.5913023913</v>
+        <v>423412.8293616017</v>
       </c>
       <c r="AH48">
-        <v>7574876.538981859</v>
+        <v>7575210.884866743</v>
       </c>
       <c r="AI48">
         <v>55</v>
@@ -5933,16 +5933,16 @@
         <v>1</v>
       </c>
       <c r="AE49">
-        <v>1063.920184853053</v>
+        <v>356.9395339549396</v>
       </c>
       <c r="AF49">
-        <v>267.2142436153047</v>
+        <v>-122.5909406564806</v>
       </c>
       <c r="AG49">
-        <v>424010.0380458531</v>
+        <v>423303.057394955</v>
       </c>
       <c r="AH49">
-        <v>7575941.137198615</v>
+        <v>7575551.332014344</v>
       </c>
       <c r="AI49">
         <v>55</v>
@@ -6040,19 +6040,19 @@
         <v>-1536.304731142707</v>
       </c>
       <c r="AD50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE50">
-        <v>340.3993829797815</v>
+        <v>-321.2570846754694</v>
       </c>
       <c r="AF50">
-        <v>-430.8393428029073</v>
+        <v>-334.622502224479</v>
       </c>
       <c r="AG50">
-        <v>423679.1305669798</v>
+        <v>423017.4740993245</v>
       </c>
       <c r="AH50">
-        <v>7575487.647647197</v>
+        <v>7575583.864487776</v>
       </c>
       <c r="AI50">
         <v>55</v>
@@ -6153,16 +6153,16 @@
         <v>1</v>
       </c>
       <c r="AE51">
-        <v>-164.2688426339527</v>
+        <v>115.6425663420223</v>
       </c>
       <c r="AF51">
-        <v>-573.2871076259835</v>
+        <v>-261.6502565859502</v>
       </c>
       <c r="AG51">
-        <v>423224.6512283661</v>
+        <v>423504.562637342</v>
       </c>
       <c r="AH51">
-        <v>7574837.780224374</v>
+        <v>7575149.417075413</v>
       </c>
       <c r="AI51">
         <v>55</v>
@@ -6263,16 +6263,16 @@
         <v>1</v>
       </c>
       <c r="AE52">
-        <v>961.6887043101892</v>
+        <v>566.6809056140931</v>
       </c>
       <c r="AF52">
-        <v>105.7195374552374</v>
+        <v>-107.1004148895275</v>
       </c>
       <c r="AG52">
-        <v>423907.8065653102</v>
+        <v>423512.7987666141</v>
       </c>
       <c r="AH52">
-        <v>7575779.642492455</v>
+        <v>7575566.82254011</v>
       </c>
       <c r="AI52">
         <v>55</v>
@@ -6373,16 +6373,16 @@
         <v>1</v>
       </c>
       <c r="AE53">
-        <v>1057.37024297125</v>
+        <v>439.6466191019571</v>
       </c>
       <c r="AF53">
-        <v>169.5168149238911</v>
+        <v>-110.6224684800234</v>
       </c>
       <c r="AG53">
-        <v>432136.8526879712</v>
+        <v>431519.1290641019</v>
       </c>
       <c r="AH53">
-        <v>7572705.379886924</v>
+        <v>7572425.240603521</v>
       </c>
       <c r="AI53">
         <v>55</v>
@@ -6483,16 +6483,16 @@
         <v>1</v>
       </c>
       <c r="AE54">
-        <v>1092.576425461824</v>
+        <v>578.6863134471178</v>
       </c>
       <c r="AF54">
-        <v>111.0908525275684</v>
+        <v>-111.6211427965532</v>
       </c>
       <c r="AG54">
-        <v>432172.0588704618</v>
+        <v>431658.1687584471</v>
       </c>
       <c r="AH54">
-        <v>7572646.953924528</v>
+        <v>7572424.241929204</v>
       </c>
       <c r="AI54">
         <v>55</v>
@@ -6593,16 +6593,16 @@
         <v>1</v>
       </c>
       <c r="AE55">
-        <v>24.46687800305801</v>
+        <v>184.5822212693694</v>
       </c>
       <c r="AF55">
-        <v>-7.023824210161985</v>
+        <v>-59.47603798727949</v>
       </c>
       <c r="AG55">
-        <v>431579.896074003</v>
+        <v>431740.0114172694</v>
       </c>
       <c r="AH55">
-        <v>7572520.001466789</v>
+        <v>7572467.549253012</v>
       </c>
       <c r="AI55">
         <v>55</v>
@@ -6703,16 +6703,16 @@
         <v>1</v>
       </c>
       <c r="AE56">
-        <v>227.8628948631759</v>
+        <v>226.7017560297102</v>
       </c>
       <c r="AF56">
-        <v>-10.79710657632565</v>
+        <v>-61.07061665994025</v>
       </c>
       <c r="AG56">
-        <v>431307.3453398632</v>
+        <v>431306.1842010297</v>
       </c>
       <c r="AH56">
-        <v>7572525.065965424</v>
+        <v>7572474.792455341</v>
       </c>
       <c r="AI56">
         <v>55</v>
@@ -6813,16 +6813,16 @@
         <v>1</v>
       </c>
       <c r="AE57">
-        <v>899.9289121932597</v>
+        <v>278.5533614627715</v>
       </c>
       <c r="AF57">
-        <v>231.1546882924368</v>
+        <v>-79.80882294292722</v>
       </c>
       <c r="AG57">
-        <v>431952.0387711933</v>
+        <v>431330.6632204628</v>
       </c>
       <c r="AH57">
-        <v>7573238.948132292</v>
+        <v>7572927.984621057</v>
       </c>
       <c r="AI57">
         <v>55</v>
@@ -6923,16 +6923,16 @@
         <v>1</v>
       </c>
       <c r="AE58">
-        <v>-313.9773215765993</v>
+        <v>-628.1502986015989</v>
       </c>
       <c r="AF58">
-        <v>-33.28441556139429</v>
+        <v>-23.96078331215339</v>
       </c>
       <c r="AG58">
-        <v>431227.1640404234</v>
+        <v>430912.9910633984</v>
       </c>
       <c r="AH58">
-        <v>7572979.915375439</v>
+        <v>7572989.239007688</v>
       </c>
       <c r="AI58">
         <v>55</v>
@@ -7033,16 +7033,16 @@
         <v>1</v>
       </c>
       <c r="AE59">
-        <v>189.3715339773724</v>
+        <v>508.7839306508786</v>
       </c>
       <c r="AF59">
-        <v>371.6101789087197</v>
+        <v>207.8016574812472</v>
       </c>
       <c r="AG59">
-        <v>431744.8007299774</v>
+        <v>432064.2131266508</v>
       </c>
       <c r="AH59">
-        <v>7572898.635469908</v>
+        <v>7572734.826948481</v>
       </c>
       <c r="AI59">
         <v>55</v>
@@ -7143,16 +7143,16 @@
         <v>1</v>
       </c>
       <c r="AE60">
-        <v>1105.290183321609</v>
+        <v>344.2688496654301</v>
       </c>
       <c r="AF60">
-        <v>225.802480319155</v>
+        <v>-76.40614245407811</v>
       </c>
       <c r="AG60">
-        <v>432184.7726283216</v>
+        <v>431423.7512946654</v>
       </c>
       <c r="AH60">
-        <v>7572761.66555232</v>
+        <v>7572459.456929547</v>
       </c>
       <c r="AI60">
         <v>55</v>
@@ -7253,16 +7253,16 @@
         <v>1</v>
       </c>
       <c r="AE61">
-        <v>502.4963079917742</v>
+        <v>321.0852138727093</v>
       </c>
       <c r="AF61">
-        <v>11.28990993971581</v>
+        <v>-54.86294278380687</v>
       </c>
       <c r="AG61">
-        <v>431554.6061669918</v>
+        <v>431373.1950728727</v>
       </c>
       <c r="AH61">
-        <v>7573019.083353939</v>
+        <v>7572952.930501216</v>
       </c>
       <c r="AI61">
         <v>55</v>
@@ -7363,16 +7363,16 @@
         <v>1</v>
       </c>
       <c r="AE62">
-        <v>-232.5178030006166</v>
+        <v>-340.7789522623207</v>
       </c>
       <c r="AF62">
-        <v>72.45396741600939</v>
+        <v>-20.27906378008205</v>
       </c>
       <c r="AG62">
-        <v>431308.6235589994</v>
+        <v>431200.3624097377</v>
       </c>
       <c r="AH62">
-        <v>7573085.653758416</v>
+        <v>7572992.92072722</v>
       </c>
       <c r="AI62">
         <v>55</v>
@@ -7473,16 +7473,16 @@
         <v>1</v>
       </c>
       <c r="AE63">
-        <v>258.0221628690555</v>
+        <v>743.8785281742036</v>
       </c>
       <c r="AF63">
-        <v>264.8977047120209</v>
+        <v>128.3426209837821</v>
       </c>
       <c r="AG63">
-        <v>431813.451358869</v>
+        <v>432299.3077241742</v>
       </c>
       <c r="AH63">
-        <v>7572791.922995712</v>
+        <v>7572655.367911983</v>
       </c>
       <c r="AI63">
         <v>55</v>
@@ -7583,16 +7583,16 @@
         <v>1</v>
       </c>
       <c r="AE64">
-        <v>766.0176899106585</v>
+        <v>377.4522371761036</v>
       </c>
       <c r="AF64">
-        <v>65.56495960706008</v>
+        <v>-98.6457293532136</v>
       </c>
       <c r="AG64">
-        <v>431845.5001349106</v>
+        <v>431456.9346821761</v>
       </c>
       <c r="AH64">
-        <v>7572601.428031608</v>
+        <v>7572437.217342647</v>
       </c>
       <c r="AI64">
         <v>55</v>
@@ -7693,16 +7693,16 @@
         <v>1</v>
       </c>
       <c r="AE65">
-        <v>-205.6311987721189</v>
+        <v>-219.8362210793894</v>
       </c>
       <c r="AF65">
-        <v>11.25204863396301</v>
+        <v>-82.17544518304061</v>
       </c>
       <c r="AG65">
-        <v>431335.5101632279</v>
+        <v>431321.3051409206</v>
       </c>
       <c r="AH65">
-        <v>7573024.451839634</v>
+        <v>7572931.024345817</v>
       </c>
       <c r="AI65">
         <v>55</v>
@@ -7803,16 +7803,16 @@
         <v>1</v>
       </c>
       <c r="AE66">
-        <v>197.8289829284309</v>
+        <v>506.8923929285312</v>
       </c>
       <c r="AF66">
-        <v>290.7308444284351</v>
+        <v>188.8906958328206</v>
       </c>
       <c r="AG66">
-        <v>431753.2581789284</v>
+        <v>432062.3215889285</v>
       </c>
       <c r="AH66">
-        <v>7572817.756135428</v>
+        <v>7572715.915986832</v>
       </c>
       <c r="AI66">
         <v>55</v>
@@ -7913,16 +7913,16 @@
         <v>1</v>
       </c>
       <c r="AE67">
-        <v>920.0206012145244</v>
+        <v>438.2534259495128</v>
       </c>
       <c r="AF67">
-        <v>62.11087010408641</v>
+        <v>-53.97186499150698</v>
       </c>
       <c r="AG67">
-        <v>431999.5030462145</v>
+        <v>431517.7358709495</v>
       </c>
       <c r="AH67">
-        <v>7572597.973942105</v>
+        <v>7572481.891207009</v>
       </c>
       <c r="AI67">
         <v>55</v>
@@ -8023,16 +8023,16 @@
         <v>1</v>
       </c>
       <c r="AE68">
-        <v>1065.969014893416</v>
+        <v>355.2042831018496</v>
       </c>
       <c r="AF68">
-        <v>178.3050420467954</v>
+        <v>-197.0705677837481</v>
       </c>
       <c r="AG68">
-        <v>432118.0788738934</v>
+        <v>431407.3141421019</v>
       </c>
       <c r="AH68">
-        <v>7573186.098486047</v>
+        <v>7572810.722876216</v>
       </c>
       <c r="AI68">
         <v>55</v>
@@ -8133,16 +8133,16 @@
         <v>1</v>
       </c>
       <c r="AE69">
-        <v>-129.671735740227</v>
+        <v>-650.4298064519838</v>
       </c>
       <c r="AF69">
-        <v>81.72554944973949</v>
+        <v>-64.6341637771325</v>
       </c>
       <c r="AG69">
-        <v>431411.4696262598</v>
+        <v>430890.711555548</v>
       </c>
       <c r="AH69">
-        <v>7573094.92534045</v>
+        <v>7572948.565627223</v>
       </c>
       <c r="AI69">
         <v>55</v>
@@ -8243,16 +8243,16 @@
         <v>1</v>
       </c>
       <c r="AE70">
-        <v>678.7591178603741</v>
+        <v>117.0160020873231</v>
       </c>
       <c r="AF70">
-        <v>183.8213020895224</v>
+        <v>-196.7374865462814</v>
       </c>
       <c r="AG70">
-        <v>432234.1883138603</v>
+        <v>431672.4451980873</v>
       </c>
       <c r="AH70">
-        <v>7572710.846593089</v>
+        <v>7572330.287804454</v>
       </c>
       <c r="AI70">
         <v>55</v>
@@ -8353,16 +8353,16 @@
         <v>1</v>
       </c>
       <c r="AE71">
-        <v>863.1640326236175</v>
+        <v>435.5389238179085</v>
       </c>
       <c r="AF71">
-        <v>56.49566396855884</v>
+        <v>-109.0014752955911</v>
       </c>
       <c r="AG71">
-        <v>431942.6464776236</v>
+        <v>431515.0213688179</v>
       </c>
       <c r="AH71">
-        <v>7572592.358735969</v>
+        <v>7572426.861596704</v>
       </c>
       <c r="AI71">
         <v>55</v>
@@ -8463,16 +8463,16 @@
         <v>1</v>
       </c>
       <c r="AE72">
-        <v>996.5171484309092</v>
+        <v>864.5602892540495</v>
       </c>
       <c r="AF72">
-        <v>96.44674318466934</v>
+        <v>-100.3685517613008</v>
       </c>
       <c r="AG72">
-        <v>432048.6270074309</v>
+        <v>431916.6701482541</v>
       </c>
       <c r="AH72">
-        <v>7573104.240187185</v>
+        <v>7572907.424892239</v>
       </c>
       <c r="AI72">
         <v>55</v>
@@ -8573,16 +8573,16 @@
         <v>1</v>
       </c>
       <c r="AE73">
-        <v>-304.3665186030144</v>
+        <v>-444.7531224054534</v>
       </c>
       <c r="AF73">
-        <v>52.16184520029771</v>
+        <v>-39.99277831305727</v>
       </c>
       <c r="AG73">
-        <v>431236.774843397</v>
+        <v>431096.3882395946</v>
       </c>
       <c r="AH73">
-        <v>7573065.361636201</v>
+        <v>7572973.207012687</v>
       </c>
       <c r="AI73">
         <v>55</v>
@@ -8683,16 +8683,16 @@
         <v>1</v>
       </c>
       <c r="AE74">
-        <v>289.3105179509951</v>
+        <v>1529.500498736781</v>
       </c>
       <c r="AF74">
-        <v>251.9704062513196</v>
+        <v>118.0619268735851</v>
       </c>
       <c r="AG74">
-        <v>431844.739713951</v>
+        <v>433084.9296947368</v>
       </c>
       <c r="AH74">
-        <v>7572778.995697251</v>
+        <v>7572645.087217873</v>
       </c>
       <c r="AI74">
         <v>55</v>
@@ -8793,16 +8793,16 @@
         <v>1</v>
       </c>
       <c r="AE75">
-        <v>927.7236770919668</v>
+        <v>965.1820466245076</v>
       </c>
       <c r="AF75">
-        <v>-3.502719614428252</v>
+        <v>-82.67576749449471</v>
       </c>
       <c r="AG75">
-        <v>432007.2061220919</v>
+        <v>432044.6644916245</v>
       </c>
       <c r="AH75">
-        <v>7572532.360352386</v>
+        <v>7572453.187304506</v>
       </c>
       <c r="AI75">
         <v>55</v>
@@ -8903,16 +8903,16 @@
         <v>1</v>
       </c>
       <c r="AE76">
-        <v>-72.99849281102081</v>
+        <v>-139.2769629098558</v>
       </c>
       <c r="AF76">
-        <v>-180.8214065660056</v>
+        <v>-158.0164781215764</v>
       </c>
       <c r="AG76">
-        <v>427171.6760471889</v>
+        <v>427105.3975770901</v>
       </c>
       <c r="AH76">
-        <v>7565467.331965434</v>
+        <v>7565490.136893879</v>
       </c>
       <c r="AI76">
         <v>55</v>
@@ -9013,16 +9013,16 @@
         <v>1</v>
       </c>
       <c r="AE77">
-        <v>3.819801628662952</v>
+        <v>394.8083992231167</v>
       </c>
       <c r="AF77">
-        <v>174.4948007552986</v>
+        <v>130.2268240670842</v>
       </c>
       <c r="AG77">
-        <v>427222.3351106286</v>
+        <v>427613.3237082231</v>
       </c>
       <c r="AH77">
-        <v>7565437.070455756</v>
+        <v>7565392.802479068</v>
       </c>
       <c r="AI77">
         <v>55</v>
@@ -9123,16 +9123,16 @@
         <v>1</v>
       </c>
       <c r="AE78">
-        <v>-166.0818325792004</v>
+        <v>-253.4332690780253</v>
       </c>
       <c r="AF78">
-        <v>120.2731795928084</v>
+        <v>100.7721592642389</v>
       </c>
       <c r="AG78">
-        <v>427497.4368524208</v>
+        <v>427410.085415922</v>
       </c>
       <c r="AH78">
-        <v>7565746.903592592</v>
+        <v>7565727.402572264</v>
       </c>
       <c r="AI78">
         <v>55</v>
@@ -9233,16 +9233,16 @@
         <v>1</v>
       </c>
       <c r="AE79">
-        <v>-26.85315306773484</v>
+        <v>-55.94317733536256</v>
       </c>
       <c r="AF79">
-        <v>-180.9405619563046</v>
+        <v>-164.5043896611101</v>
       </c>
       <c r="AG79">
-        <v>427217.8213869322</v>
+        <v>427188.7313626646</v>
       </c>
       <c r="AH79">
-        <v>7565467.212810043</v>
+        <v>7565483.648982339</v>
       </c>
       <c r="AI79">
         <v>55</v>
@@ -9343,16 +9343,16 @@
         <v>1</v>
       </c>
       <c r="AE80">
-        <v>-29.13739194895999</v>
+        <v>1142.794957840002</v>
       </c>
       <c r="AF80">
-        <v>77.23754958893899</v>
+        <v>80.47329115105629</v>
       </c>
       <c r="AG80">
-        <v>427189.377917051</v>
+        <v>428361.31026684</v>
       </c>
       <c r="AH80">
-        <v>7565339.813204589</v>
+        <v>7565343.048946152</v>
       </c>
       <c r="AI80">
         <v>55</v>
@@ -9453,16 +9453,16 @@
         <v>1</v>
       </c>
       <c r="AE81">
-        <v>159.4039922719206</v>
+        <v>753.3104366134668</v>
       </c>
       <c r="AF81">
-        <v>267.7388548572156</v>
+        <v>151.9438819279001</v>
       </c>
       <c r="AG81">
-        <v>427902.8756462719</v>
+        <v>428496.7820906134</v>
       </c>
       <c r="AH81">
-        <v>7565445.371396857</v>
+        <v>7565329.576423928</v>
       </c>
       <c r="AI81">
         <v>55</v>
@@ -9563,16 +9563,16 @@
         <v>1</v>
       </c>
       <c r="AE82">
-        <v>-207.9726186814816</v>
+        <v>-448.095992457509</v>
       </c>
       <c r="AF82">
-        <v>-22.57137910251198</v>
+        <v>-72.95293164757521</v>
       </c>
       <c r="AG82">
-        <v>427455.5460663185</v>
+        <v>427215.4226925425</v>
       </c>
       <c r="AH82">
-        <v>7565604.059033897</v>
+        <v>7565553.677481352</v>
       </c>
       <c r="AI82">
         <v>55</v>
@@ -9673,16 +9673,16 @@
         <v>1</v>
       </c>
       <c r="AE83">
-        <v>-0.4459331710589853</v>
+        <v>-587.2475837613844</v>
       </c>
       <c r="AF83">
-        <v>-213.904976207632</v>
+        <v>-140.9965250687608</v>
       </c>
       <c r="AG83">
-        <v>427244.2286068289</v>
+        <v>426657.4269562386</v>
       </c>
       <c r="AH83">
-        <v>7565434.248395792</v>
+        <v>7565507.156846931</v>
       </c>
       <c r="AI83">
         <v>55</v>
@@ -9783,16 +9783,16 @@
         <v>1</v>
       </c>
       <c r="AE84">
-        <v>0.7501022883468387</v>
+        <v>893.5480121176432</v>
       </c>
       <c r="AF84">
-        <v>36.64261005371561</v>
+        <v>93.20924480251816</v>
       </c>
       <c r="AG84">
-        <v>427219.2654112883</v>
+        <v>428112.0633211176</v>
       </c>
       <c r="AH84">
-        <v>7565299.218265054</v>
+        <v>7565355.784899803</v>
       </c>
       <c r="AI84">
         <v>55</v>
@@ -9893,16 +9893,16 @@
         <v>1</v>
       </c>
       <c r="AE85">
-        <v>-333.5542039469636</v>
+        <v>118.8222377677879</v>
       </c>
       <c r="AF85">
-        <v>111.2009327331016</v>
+        <v>118.7766394320742</v>
       </c>
       <c r="AG85">
-        <v>427409.917450053</v>
+        <v>427862.2938917678</v>
       </c>
       <c r="AH85">
-        <v>7565288.833474733</v>
+        <v>7565296.409181432</v>
       </c>
       <c r="AI85">
         <v>55</v>
@@ -10003,16 +10003,16 @@
         <v>1</v>
       </c>
       <c r="AE86">
-        <v>-158.5898895346414</v>
+        <v>-60.38037684917619</v>
       </c>
       <c r="AF86">
-        <v>-112.9915582743171</v>
+        <v>-105.4871902658428</v>
       </c>
       <c r="AG86">
-        <v>427504.9287954654</v>
+        <v>427603.1383081509</v>
       </c>
       <c r="AH86">
-        <v>7565513.638854725</v>
+        <v>7565521.143222733</v>
       </c>
       <c r="AI86">
         <v>55</v>
@@ -10113,16 +10113,16 @@
         <v>1</v>
       </c>
       <c r="AE87">
-        <v>-1.67278448172003</v>
+        <v>-6.09891385048388</v>
       </c>
       <c r="AF87">
-        <v>-142.8642798389984</v>
+        <v>-54.03019606517984</v>
       </c>
       <c r="AG87">
-        <v>427243.0017555183</v>
+        <v>427238.5756261495</v>
       </c>
       <c r="AH87">
-        <v>7565505.289092161</v>
+        <v>7565594.123175935</v>
       </c>
       <c r="AI87">
         <v>55</v>
@@ -10223,16 +10223,16 @@
         <v>1</v>
       </c>
       <c r="AE88">
-        <v>-19.45748589149777</v>
+        <v>235.0734538037887</v>
       </c>
       <c r="AF88">
-        <v>226.7772086395608</v>
+        <v>240.308852643281</v>
       </c>
       <c r="AG88">
-        <v>427199.0578231085</v>
+        <v>427453.5887628038</v>
       </c>
       <c r="AH88">
-        <v>7565489.35286364</v>
+        <v>7565502.884507644</v>
       </c>
       <c r="AI88">
         <v>55</v>
@@ -10333,16 +10333,16 @@
         <v>1</v>
       </c>
       <c r="AE89">
-        <v>64.18662440994531</v>
+        <v>-67.34744442757447</v>
       </c>
       <c r="AF89">
-        <v>-244.7503174717245</v>
+        <v>-84.99006875962047</v>
       </c>
       <c r="AG89">
-        <v>427807.6582784099</v>
+        <v>427676.1242095724</v>
       </c>
       <c r="AH89">
-        <v>7564932.882224528</v>
+        <v>7565092.64247324</v>
       </c>
       <c r="AI89">
         <v>55</v>
@@ -10443,16 +10443,16 @@
         <v>1</v>
       </c>
       <c r="AE90">
-        <v>-203.4643330669225</v>
+        <v>-163.0208580101065</v>
       </c>
       <c r="AF90">
-        <v>63.6282620494266</v>
+        <v>-46.87049217864518</v>
       </c>
       <c r="AG90">
-        <v>427460.0543519331</v>
+        <v>427500.4978269899</v>
       </c>
       <c r="AH90">
-        <v>7565690.258675049</v>
+        <v>7565579.759920821</v>
       </c>
       <c r="AI90">
         <v>55</v>
@@ -10550,19 +10550,19 @@
         <v>18.68251686822623</v>
       </c>
       <c r="AD91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE91">
-        <v>1060.13737431279</v>
+        <v>372.1702353957567</v>
       </c>
       <c r="AF91">
-        <v>377.1351096032607</v>
+        <v>-117.2534924954445</v>
       </c>
       <c r="AG91">
-        <v>424398.8685583128</v>
+        <v>423710.9014193958</v>
       </c>
       <c r="AH91">
-        <v>7576295.622099604</v>
+        <v>7575801.233497505</v>
       </c>
       <c r="AI91">
         <v>55</v>
@@ -10663,16 +10663,16 @@
         <v>1</v>
       </c>
       <c r="AE92">
-        <v>-107.7934358646637</v>
+        <v>-120.0982991237479</v>
       </c>
       <c r="AF92">
-        <v>337.0748816216826</v>
+        <v>381.8386445671852</v>
       </c>
       <c r="AG92">
-        <v>427110.7218731353</v>
+        <v>427098.4170098762</v>
       </c>
       <c r="AH92">
-        <v>7565599.650536622</v>
+        <v>7565644.414299567</v>
       </c>
       <c r="AI92">
         <v>55</v>
@@ -10773,16 +10773,16 @@
         <v>1</v>
       </c>
       <c r="AE93">
-        <v>-116.2274159678271</v>
+        <v>219.0776267677907</v>
       </c>
       <c r="AF93">
-        <v>-746.1356470578795</v>
+        <v>-359.9665956630309</v>
       </c>
       <c r="AG93">
-        <v>427128.4471240321</v>
+        <v>427463.7521667678</v>
       </c>
       <c r="AH93">
-        <v>7564902.017724942</v>
+        <v>7565288.186776337</v>
       </c>
       <c r="AI93">
         <v>55</v>
@@ -10883,16 +10883,16 @@
         <v>1</v>
       </c>
       <c r="AE94">
-        <v>-39.78078828006152</v>
+        <v>804.0674523303704</v>
       </c>
       <c r="AF94">
-        <v>619.90308958815</v>
+        <v>390.7813226370262</v>
       </c>
       <c r="AG94">
-        <v>427178.7345207199</v>
+        <v>428022.5827613304</v>
       </c>
       <c r="AH94">
-        <v>7565882.478744589</v>
+        <v>7565653.356977637</v>
       </c>
       <c r="AI94">
         <v>55</v>
@@ -10993,16 +10993,16 @@
         <v>1</v>
       </c>
       <c r="AE95">
-        <v>-74.02189581341186</v>
+        <v>-141.3625141673942</v>
       </c>
       <c r="AF95">
-        <v>-421.0655664854155</v>
+        <v>-335.0418612034981</v>
       </c>
       <c r="AG95">
-        <v>427170.6526441866</v>
+        <v>427103.3120258326</v>
       </c>
       <c r="AH95">
-        <v>7565227.087805514</v>
+        <v>7565313.111510796</v>
       </c>
       <c r="AI95">
         <v>55</v>
@@ -11103,16 +11103,16 @@
         <v>1</v>
       </c>
       <c r="AE96">
-        <v>-92.58775124682168</v>
+        <v>1295.363665522889</v>
       </c>
       <c r="AF96">
-        <v>153.4644632610984</v>
+        <v>160.2401447479039</v>
       </c>
       <c r="AG96">
-        <v>427125.9275577532</v>
+        <v>428513.8789745229</v>
       </c>
       <c r="AH96">
-        <v>7565416.040118261</v>
+        <v>7565422.815799749</v>
       </c>
       <c r="AI96">
         <v>55</v>
@@ -11213,16 +11213,16 @@
         <v>1</v>
       </c>
       <c r="AE97">
-        <v>250.4448001338378</v>
+        <v>1174.363844134615</v>
       </c>
       <c r="AF97">
-        <v>353.0627338700468</v>
+        <v>140.9733609162913</v>
       </c>
       <c r="AG97">
-        <v>427993.9164541338</v>
+        <v>428917.8354981346</v>
       </c>
       <c r="AH97">
-        <v>7565530.69527587</v>
+        <v>7565318.605902917</v>
       </c>
       <c r="AI97">
         <v>55</v>
@@ -11323,16 +11323,16 @@
         <v>1</v>
       </c>
       <c r="AE98">
-        <v>148.4629936003801</v>
+        <v>1724.174546416879</v>
       </c>
       <c r="AF98">
-        <v>342.2248088755916</v>
+        <v>159.9450917967358</v>
       </c>
       <c r="AG98">
-        <v>427811.9816786004</v>
+        <v>429387.6932314169</v>
       </c>
       <c r="AH98">
-        <v>7565968.855221875</v>
+        <v>7565786.575504797</v>
       </c>
       <c r="AI98">
         <v>55</v>
@@ -11433,16 +11433,16 @@
         <v>1</v>
       </c>
       <c r="AE99">
-        <v>-47.91675715652465</v>
+        <v>621.7208476302177</v>
       </c>
       <c r="AF99">
-        <v>-382.8688348383098</v>
+        <v>-187.4024067416058</v>
       </c>
       <c r="AG99">
-        <v>427196.7577828434</v>
+        <v>427866.3953876302</v>
       </c>
       <c r="AH99">
-        <v>7565265.284537162</v>
+        <v>7565460.750965258</v>
       </c>
       <c r="AI99">
         <v>55</v>
@@ -11543,16 +11543,16 @@
         <v>1</v>
       </c>
       <c r="AE100">
-        <v>-64.138999958287</v>
+        <v>829.304620986767</v>
       </c>
       <c r="AF100">
-        <v>-51.23717834864689</v>
+        <v>45.44858334248437</v>
       </c>
       <c r="AG100">
-        <v>427154.3763090417</v>
+        <v>428047.8199299867</v>
       </c>
       <c r="AH100">
-        <v>7565211.338476651</v>
+        <v>7565308.024238342</v>
       </c>
       <c r="AI100">
         <v>55</v>
@@ -11653,16 +11653,16 @@
         <v>1</v>
       </c>
       <c r="AE101">
-        <v>159.250173400907</v>
+        <v>1489.027732795942</v>
       </c>
       <c r="AF101">
-        <v>117.8641128709595</v>
+        <v>-93.308174385519</v>
       </c>
       <c r="AG101">
-        <v>427902.7218274009</v>
+        <v>429232.4993867959</v>
       </c>
       <c r="AH101">
-        <v>7565295.496654871</v>
+        <v>7565084.324367614</v>
       </c>
       <c r="AI101">
         <v>55</v>
@@ -11763,16 +11763,16 @@
         <v>1</v>
       </c>
       <c r="AE102">
-        <v>34.41686616193914</v>
+        <v>1667.34064714459</v>
       </c>
       <c r="AF102">
-        <v>-373.6361099745228</v>
+        <v>-119.3559631405112</v>
       </c>
       <c r="AG102">
-        <v>427697.9355511619</v>
+        <v>429330.8593321446</v>
       </c>
       <c r="AH102">
-        <v>7565252.994303025</v>
+        <v>7565507.274449859</v>
       </c>
       <c r="AI102">
         <v>55</v>
@@ -11873,16 +11873,16 @@
         <v>1</v>
       </c>
       <c r="AE103">
-        <v>-59.15229463043048</v>
+        <v>689.2179709320103</v>
       </c>
       <c r="AF103">
-        <v>-382.4800284301242</v>
+        <v>-232.0360349935311</v>
       </c>
       <c r="AG103">
-        <v>427185.5222453696</v>
+        <v>427933.892510932</v>
       </c>
       <c r="AH103">
-        <v>7565265.67334357</v>
+        <v>7565416.117337006</v>
       </c>
       <c r="AI103">
         <v>55</v>
@@ -11983,16 +11983,16 @@
         <v>1</v>
       </c>
       <c r="AE104">
-        <v>-38.65945773362765</v>
+        <v>659.6335775595577</v>
       </c>
       <c r="AF104">
-        <v>-40.57125672378864</v>
+        <v>24.61377931134828</v>
       </c>
       <c r="AG104">
-        <v>427179.8558512664</v>
+        <v>427878.1488865595</v>
       </c>
       <c r="AH104">
-        <v>7565222.004398276</v>
+        <v>7565287.189434311</v>
       </c>
       <c r="AI104">
         <v>55</v>
@@ -12093,16 +12093,16 @@
         <v>1</v>
       </c>
       <c r="AE105">
-        <v>109.3775200551475</v>
+        <v>3059.141225030391</v>
       </c>
       <c r="AF105">
-        <v>362.5552555365777</v>
+        <v>202.1094236107944</v>
       </c>
       <c r="AG105">
-        <v>427852.8491740552</v>
+        <v>430802.6128790304</v>
       </c>
       <c r="AH105">
-        <v>7565540.187797537</v>
+        <v>7565379.741965611</v>
       </c>
       <c r="AI105">
         <v>55</v>
@@ -12203,16 +12203,16 @@
         <v>1</v>
       </c>
       <c r="AE106">
-        <v>-52.33494989330514</v>
+        <v>531.2760744785048</v>
       </c>
       <c r="AF106">
-        <v>-348.6403642104447</v>
+        <v>-177.8776156977411</v>
       </c>
       <c r="AG106">
-        <v>427192.3395901067</v>
+        <v>427775.9506144785</v>
       </c>
       <c r="AH106">
-        <v>7565299.51300779</v>
+        <v>7565470.275756302</v>
       </c>
       <c r="AI106">
         <v>55</v>
@@ -12313,16 +12313,16 @@
         <v>1</v>
       </c>
       <c r="AE107">
-        <v>-76.31200812351094</v>
+        <v>927.9163399304604</v>
       </c>
       <c r="AF107">
-        <v>-32.67917345662742</v>
+        <v>52.98524168587768</v>
       </c>
       <c r="AG107">
-        <v>427142.2033008765</v>
+        <v>428146.4316489304</v>
       </c>
       <c r="AH107">
-        <v>7565229.896481544</v>
+        <v>7565315.560896686</v>
       </c>
       <c r="AI107">
         <v>55</v>
@@ -12423,16 +12423,16 @@
         <v>1</v>
       </c>
       <c r="AE108">
-        <v>107.7578617741379</v>
+        <v>2517.77448172512</v>
       </c>
       <c r="AF108">
-        <v>385.1022933932615</v>
+        <v>175.0552085611824</v>
       </c>
       <c r="AG108">
-        <v>427851.2295157741</v>
+        <v>430261.2461357251</v>
       </c>
       <c r="AH108">
-        <v>7565562.734835394</v>
+        <v>7565352.687750561</v>
       </c>
       <c r="AI108">
         <v>55</v>
@@ -12533,16 +12533,16 @@
         <v>1</v>
       </c>
       <c r="AE109">
-        <v>269.8291880687947</v>
+        <v>1821.55290853952</v>
       </c>
       <c r="AF109">
-        <v>322.8363038581109</v>
+        <v>190.3746146694919</v>
       </c>
       <c r="AG109">
-        <v>427933.3478730688</v>
+        <v>429485.0715935396</v>
       </c>
       <c r="AH109">
-        <v>7565949.466716858</v>
+        <v>7565817.005027669</v>
       </c>
       <c r="AI109">
         <v>55</v>
@@ -12643,16 +12643,16 @@
         <v>1</v>
       </c>
       <c r="AE110">
-        <v>-72.8269541695331</v>
+        <v>543.4556146369993</v>
       </c>
       <c r="AF110">
-        <v>-366.3289678411986</v>
+        <v>-255.5978094573901</v>
       </c>
       <c r="AG110">
-        <v>427171.8475858304</v>
+        <v>427788.130154637</v>
       </c>
       <c r="AH110">
-        <v>7565281.824404159</v>
+        <v>7565392.555562543</v>
       </c>
       <c r="AI110">
         <v>55</v>
@@ -12753,16 +12753,16 @@
         <v>1</v>
       </c>
       <c r="AE111">
-        <v>9.043127829971397</v>
+        <v>695.7278134483123</v>
       </c>
       <c r="AF111">
-        <v>-119.8521748784444</v>
+        <v>82.80768084001154</v>
       </c>
       <c r="AG111">
-        <v>427227.5584368299</v>
+        <v>427914.2431224483</v>
       </c>
       <c r="AH111">
-        <v>7565142.723480122</v>
+        <v>7565345.38333584</v>
       </c>
       <c r="AI111">
         <v>55</v>
@@ -12863,16 +12863,16 @@
         <v>1</v>
       </c>
       <c r="AE112">
-        <v>281.159421684109</v>
+        <v>895.0464651426679</v>
       </c>
       <c r="AF112">
-        <v>232.2929975110888</v>
+        <v>43.15319331975207</v>
       </c>
       <c r="AG112">
-        <v>428024.6310756841</v>
+        <v>428638.5181191427</v>
       </c>
       <c r="AH112">
-        <v>7565409.925539511</v>
+        <v>7565220.78573532</v>
       </c>
       <c r="AI112">
         <v>55</v>
@@ -12973,16 +12973,16 @@
         <v>1</v>
       </c>
       <c r="AE113">
-        <v>-78.32527264276382</v>
+        <v>996.9703416331128</v>
       </c>
       <c r="AF113">
-        <v>-227.8907765103344</v>
+        <v>-134.623054346242</v>
       </c>
       <c r="AG113">
-        <v>427585.1934123572</v>
+        <v>428660.4890266331</v>
       </c>
       <c r="AH113">
-        <v>7565398.739636489</v>
+        <v>7565492.007358653</v>
       </c>
       <c r="AI113">
         <v>55</v>
@@ -13083,16 +13083,16 @@
         <v>1</v>
       </c>
       <c r="AE114">
-        <v>-208.8093198833178</v>
+        <v>289.5617922658369</v>
       </c>
       <c r="AF114">
-        <v>-534.5995753194311</v>
+        <v>-202.174414000376</v>
       </c>
       <c r="AG114">
-        <v>427035.8652201167</v>
+        <v>427534.2363322658</v>
       </c>
       <c r="AH114">
-        <v>7565113.553796681</v>
+        <v>7565445.978957999</v>
       </c>
       <c r="AI114">
         <v>55</v>
@@ -13193,16 +13193,16 @@
         <v>1</v>
       </c>
       <c r="AE115">
-        <v>9.911756069747646</v>
+        <v>-610.6296404609426</v>
       </c>
       <c r="AF115">
-        <v>-51.62801350944923</v>
+        <v>37.80543513978612</v>
       </c>
       <c r="AG115">
-        <v>427228.4270650697</v>
+        <v>426607.885668539</v>
       </c>
       <c r="AH115">
-        <v>7565210.947641491</v>
+        <v>7565300.38109014</v>
       </c>
       <c r="AI115">
         <v>55</v>
@@ -13303,16 +13303,16 @@
         <v>1</v>
       </c>
       <c r="AE116">
-        <v>594.3063375623916</v>
+        <v>227.5505861693822</v>
       </c>
       <c r="AF116">
-        <v>11.1850415573545</v>
+        <v>-146.5117128068227</v>
       </c>
       <c r="AG116">
-        <v>428337.7779915624</v>
+        <v>427971.0222401694</v>
       </c>
       <c r="AH116">
-        <v>7565188.817583557</v>
+        <v>7565031.120829193</v>
       </c>
       <c r="AI116">
         <v>55</v>
@@ -13413,16 +13413,16 @@
         <v>1</v>
       </c>
       <c r="AE117">
-        <v>-115.4700602748106</v>
+        <v>-16.57543079582818</v>
       </c>
       <c r="AF117">
-        <v>-538.6226333141274</v>
+        <v>-306.664063531344</v>
       </c>
       <c r="AG117">
-        <v>427548.0486247252</v>
+        <v>427646.9432542042</v>
       </c>
       <c r="AH117">
-        <v>7565088.007779686</v>
+        <v>7565319.966349469</v>
       </c>
       <c r="AI117">
         <v>55</v>
@@ -13523,16 +13523,16 @@
         <v>1</v>
       </c>
       <c r="AE118">
-        <v>-151.0859246750013</v>
+        <v>-545.1821199612734</v>
       </c>
       <c r="AF118">
-        <v>-375.129553427709</v>
+        <v>-298.2936448567277</v>
       </c>
       <c r="AG118">
-        <v>427093.588615325</v>
+        <v>426699.4924200387</v>
       </c>
       <c r="AH118">
-        <v>7565273.023818572</v>
+        <v>7565349.859727143</v>
       </c>
       <c r="AI118">
         <v>55</v>
@@ -13633,16 +13633,16 @@
         <v>1</v>
       </c>
       <c r="AE119">
-        <v>-47.01455310682383</v>
+        <v>-2384.63266589733</v>
       </c>
       <c r="AF119">
-        <v>-15.43025392664247</v>
+        <v>-17.15053007141033</v>
       </c>
       <c r="AG119">
-        <v>427171.5007558932</v>
+        <v>424833.8826431027</v>
       </c>
       <c r="AH119">
-        <v>7565247.145401074</v>
+        <v>7565245.425124929</v>
       </c>
       <c r="AI119">
         <v>55</v>
@@ -13743,16 +13743,16 @@
         <v>1</v>
       </c>
       <c r="AE120">
-        <v>-181.5809833855313</v>
+        <v>-192.0431525363268</v>
       </c>
       <c r="AF120">
-        <v>70.37057268334738</v>
+        <v>-71.41161151200032</v>
       </c>
       <c r="AG120">
-        <v>427561.8906706144</v>
+        <v>427551.4285014637</v>
       </c>
       <c r="AH120">
-        <v>7565248.003114684</v>
+        <v>7565106.220930488</v>
       </c>
       <c r="AI120">
         <v>55</v>
@@ -13853,16 +13853,16 @@
         <v>1</v>
       </c>
       <c r="AE121">
-        <v>-107.170097371074</v>
+        <v>-20.39412525439539</v>
       </c>
       <c r="AF121">
-        <v>-460.4734344768879</v>
+        <v>-241.418160385108</v>
       </c>
       <c r="AG121">
-        <v>427556.3485876289</v>
+        <v>427643.1245597456</v>
       </c>
       <c r="AH121">
-        <v>7565166.156978522</v>
+        <v>7565385.212252614</v>
       </c>
       <c r="AI121">
         <v>55</v>
@@ -13963,16 +13963,16 @@
         <v>1</v>
       </c>
       <c r="AE122">
-        <v>-141.3889797020092</v>
+        <v>119.8182874348621</v>
       </c>
       <c r="AF122">
-        <v>-491.9511406904514</v>
+        <v>-229.2962927710635</v>
       </c>
       <c r="AG122">
-        <v>427103.285560298</v>
+        <v>427364.4928274348</v>
       </c>
       <c r="AH122">
-        <v>7565156.202231309</v>
+        <v>7565418.857079229</v>
       </c>
       <c r="AI122">
         <v>55</v>
@@ -14073,16 +14073,16 @@
         <v>1</v>
       </c>
       <c r="AE123">
-        <v>3.54469647533298</v>
+        <v>150.5657251751779</v>
       </c>
       <c r="AF123">
-        <v>-11.4615909002484</v>
+        <v>22.44360969857168</v>
       </c>
       <c r="AG123">
-        <v>427222.0600054753</v>
+        <v>427369.0810341752</v>
       </c>
       <c r="AH123">
-        <v>7565251.1140641</v>
+        <v>7565285.019264699</v>
       </c>
       <c r="AI123">
         <v>55</v>
@@ -14183,16 +14183,16 @@
         <v>1</v>
       </c>
       <c r="AE124">
-        <v>-310.9984581478803</v>
+        <v>-778.5659550208877</v>
       </c>
       <c r="AF124">
-        <v>18.97885871278629</v>
+        <v>-35.43855677171236</v>
       </c>
       <c r="AG124">
-        <v>427432.4731958521</v>
+        <v>426964.9056989791</v>
       </c>
       <c r="AH124">
-        <v>7565196.611400713</v>
+        <v>7565142.193985228</v>
       </c>
       <c r="AI124">
         <v>55</v>
@@ -14293,16 +14293,16 @@
         <v>1</v>
       </c>
       <c r="AE125">
-        <v>251.0028482035885</v>
+        <v>338.9769948301011</v>
       </c>
       <c r="AF125">
-        <v>-420.9840600374387</v>
+        <v>-265.0283704564615</v>
       </c>
       <c r="AG125">
-        <v>427914.5215332036</v>
+        <v>428002.4956798301</v>
       </c>
       <c r="AH125">
-        <v>7565205.646352962</v>
+        <v>7565361.602042543</v>
       </c>
       <c r="AI125">
         <v>55</v>
@@ -14403,16 +14403,16 @@
         <v>1</v>
       </c>
       <c r="AE126">
-        <v>-53.58827470845933</v>
+        <v>144.5434923239956</v>
       </c>
       <c r="AF126">
-        <v>-326.48603081183</v>
+        <v>-169.7446309689337</v>
       </c>
       <c r="AG126">
-        <v>427191.0862652915</v>
+        <v>427389.218032324</v>
       </c>
       <c r="AH126">
-        <v>7565321.667341189</v>
+        <v>7565478.408741031</v>
       </c>
       <c r="AI126">
         <v>55</v>
@@ -14513,16 +14513,16 @@
         <v>1</v>
       </c>
       <c r="AE127">
-        <v>-22.94554108451329</v>
+        <v>-366.327334206836</v>
       </c>
       <c r="AF127">
-        <v>-39.93185102363241</v>
+        <v>14.54102544716077</v>
       </c>
       <c r="AG127">
-        <v>427195.5697679155</v>
+        <v>426852.1879747931</v>
       </c>
       <c r="AH127">
-        <v>7565222.643803976</v>
+        <v>7565277.116680447</v>
       </c>
       <c r="AI127">
         <v>55</v>
@@ -14623,16 +14623,16 @@
         <v>1</v>
       </c>
       <c r="AE128">
-        <v>-139.1457813632636</v>
+        <v>-867.6329260785849</v>
       </c>
       <c r="AF128">
-        <v>44.23754400408341</v>
+        <v>-74.99519786508901</v>
       </c>
       <c r="AG128">
-        <v>427604.3258726367</v>
+        <v>426875.8387279214</v>
       </c>
       <c r="AH128">
-        <v>7565221.870086004</v>
+        <v>7565102.637344135</v>
       </c>
       <c r="AI128">
         <v>55</v>
@@ -14733,16 +14733,16 @@
         <v>1</v>
       </c>
       <c r="AE129">
-        <v>-127.928513153772</v>
+        <v>381.2902957464709</v>
       </c>
       <c r="AF129">
-        <v>-462.9637724066863</v>
+        <v>-328.261399568403</v>
       </c>
       <c r="AG129">
-        <v>427116.7460268462</v>
+        <v>427625.9648357464</v>
       </c>
       <c r="AH129">
-        <v>7565185.189599593</v>
+        <v>7565319.891972432</v>
       </c>
       <c r="AI129">
         <v>55</v>
@@ -14843,16 +14843,16 @@
         <v>1</v>
       </c>
       <c r="AE130">
-        <v>-9.465607241006497</v>
+        <v>-94.88917544774932</v>
       </c>
       <c r="AF130">
-        <v>-23.86969286731279</v>
+        <v>-44.36245265235824</v>
       </c>
       <c r="AG130">
-        <v>427209.049701759</v>
+        <v>427123.6261335522</v>
       </c>
       <c r="AH130">
-        <v>7565238.705962133</v>
+        <v>7565218.213202348</v>
       </c>
       <c r="AI130">
         <v>55</v>
@@ -14953,16 +14953,16 @@
         <v>1</v>
       </c>
       <c r="AE131">
-        <v>-340.2875664530733</v>
+        <v>-3196.632654834526</v>
       </c>
       <c r="AF131">
-        <v>60.37095630686336</v>
+        <v>-33.15425203637744</v>
       </c>
       <c r="AG131">
-        <v>427403.1840875469</v>
+        <v>424546.8389991655</v>
       </c>
       <c r="AH131">
-        <v>7565238.003498307</v>
+        <v>7565144.478289964</v>
       </c>
       <c r="AI131">
         <v>55</v>
@@ -15063,16 +15063,16 @@
         <v>1</v>
       </c>
       <c r="AE132">
-        <v>-139.8215994792765</v>
+        <v>87.93493796537517</v>
       </c>
       <c r="AF132">
-        <v>-472.4308965851098</v>
+        <v>-253.9894884993842</v>
       </c>
       <c r="AG132">
-        <v>427523.6970855207</v>
+        <v>427751.4536229654</v>
       </c>
       <c r="AH132">
-        <v>7565154.199516415</v>
+        <v>7565372.6409245</v>
       </c>
       <c r="AI132">
         <v>55</v>
@@ -15173,16 +15173,16 @@
         <v>1</v>
       </c>
       <c r="AE133">
-        <v>-134.9789626526086</v>
+        <v>337.4008538055454</v>
       </c>
       <c r="AF133">
-        <v>-371.1530731926344</v>
+        <v>-189.1624408832166</v>
       </c>
       <c r="AG133">
-        <v>427083.5363463474</v>
+        <v>427555.9161628055</v>
       </c>
       <c r="AH133">
-        <v>7564891.422581808</v>
+        <v>7565073.413214117</v>
       </c>
       <c r="AI133">
         <v>55</v>
@@ -15283,16 +15283,16 @@
         <v>1</v>
       </c>
       <c r="AE134">
-        <v>-146.2519075694819</v>
+        <v>-409.2720385778816</v>
       </c>
       <c r="AF134">
-        <v>-396.3428204573548</v>
+        <v>-261.1631497662902</v>
       </c>
       <c r="AG134">
-        <v>427098.4226324305</v>
+        <v>426835.4025014221</v>
       </c>
       <c r="AH134">
-        <v>7565251.810551543</v>
+        <v>7565386.990222233</v>
       </c>
       <c r="AI134">
         <v>55</v>
@@ -15393,16 +15393,16 @@
         <v>1</v>
       </c>
       <c r="AE135">
-        <v>-36.741615997232</v>
+        <v>1734.548909091395</v>
       </c>
       <c r="AF135">
-        <v>-254.2985726100125</v>
+        <v>-46.37888111642389</v>
       </c>
       <c r="AG135">
-        <v>427181.7736930028</v>
+        <v>428953.0642180914</v>
       </c>
       <c r="AH135">
-        <v>7565008.27708239</v>
+        <v>7565216.196773884</v>
       </c>
       <c r="AI135">
         <v>55</v>
@@ -15503,16 +15503,16 @@
         <v>1</v>
       </c>
       <c r="AE136">
-        <v>-400.4277012846227</v>
+        <v>-5239.340982810829</v>
       </c>
       <c r="AF136">
-        <v>72.13801021813319</v>
+        <v>-77.36009993671449</v>
       </c>
       <c r="AG136">
-        <v>427343.0439527154</v>
+        <v>422504.1306711892</v>
       </c>
       <c r="AH136">
-        <v>7565249.770552218</v>
+        <v>7565100.272442063</v>
       </c>
       <c r="AI136">
         <v>55</v>
@@ -15613,16 +15613,16 @@
         <v>1</v>
       </c>
       <c r="AE137">
-        <v>-72.45566245285504</v>
+        <v>-70.94999871695713</v>
       </c>
       <c r="AF137">
-        <v>-457.0932062908419</v>
+        <v>-352.6821877010362</v>
       </c>
       <c r="AG137">
-        <v>427591.0630225472</v>
+        <v>427592.5686862831</v>
       </c>
       <c r="AH137">
-        <v>7565169.537206708</v>
+        <v>7565273.948225299</v>
       </c>
       <c r="AI137">
         <v>55</v>
@@ -15723,16 +15723,16 @@
         <v>1</v>
       </c>
       <c r="AE138">
-        <v>-202.2937438389225</v>
+        <v>101.8349407935976</v>
       </c>
       <c r="AF138">
-        <v>-381.8826947678773</v>
+        <v>-230.4848643682287</v>
       </c>
       <c r="AG138">
-        <v>427042.3807961611</v>
+        <v>427346.5094807936</v>
       </c>
       <c r="AH138">
-        <v>7565266.270677232</v>
+        <v>7565417.668507632</v>
       </c>
       <c r="AI138">
         <v>55</v>
@@ -15833,16 +15833,16 @@
         <v>1</v>
       </c>
       <c r="AE139">
-        <v>-80.66159133078071</v>
+        <v>550.6523851759219</v>
       </c>
       <c r="AF139">
-        <v>-167.030311938739</v>
+        <v>-24.2324463385969</v>
       </c>
       <c r="AG139">
-        <v>427137.8537176692</v>
+        <v>427769.1676941759</v>
       </c>
       <c r="AH139">
-        <v>7565095.545343062</v>
+        <v>7565238.343208661</v>
       </c>
       <c r="AI139">
         <v>55</v>
@@ -15943,16 +15943,16 @@
         <v>1</v>
       </c>
       <c r="AE140">
-        <v>-339.5287529583327</v>
+        <v>-6541.916364883164</v>
       </c>
       <c r="AF140">
-        <v>-34.81849523960982</v>
+        <v>-67.77775344893843</v>
       </c>
       <c r="AG140">
-        <v>427403.9429010416</v>
+        <v>421201.5552891168</v>
       </c>
       <c r="AH140">
-        <v>7565142.81404676</v>
+        <v>7565109.854788551</v>
       </c>
       <c r="AI140">
         <v>55</v>
@@ -16053,16 +16053,16 @@
         <v>1</v>
       </c>
       <c r="AE141">
-        <v>-92.81403828531212</v>
+        <v>-204.9032264719</v>
       </c>
       <c r="AF141">
-        <v>-541.2460854858052</v>
+        <v>-299.1305600030259</v>
       </c>
       <c r="AG141">
-        <v>427570.7046467147</v>
+        <v>427458.6154585281</v>
       </c>
       <c r="AH141">
-        <v>7565085.384327514</v>
+        <v>7565327.499852996</v>
       </c>
       <c r="AI141">
         <v>55</v>
@@ -16163,16 +16163,16 @@
         <v>1</v>
       </c>
       <c r="AE142">
-        <v>-109.6362603660908</v>
+        <v>-62.79013445723177</v>
       </c>
       <c r="AF142">
-        <v>-457.8837740153945</v>
+        <v>-184.6541718400067</v>
       </c>
       <c r="AG142">
-        <v>427135.0382796339</v>
+        <v>427181.8844055427</v>
       </c>
       <c r="AH142">
-        <v>7565190.269597985</v>
+        <v>7565463.49920016</v>
       </c>
       <c r="AI142">
         <v>55</v>
@@ -16273,16 +16273,16 @@
         <v>1</v>
       </c>
       <c r="AE143">
-        <v>34.55878913798745</v>
+        <v>799.1922276502791</v>
       </c>
       <c r="AF143">
-        <v>-103.5484847013003</v>
+        <v>-77.25272086094269</v>
       </c>
       <c r="AG143">
-        <v>427253.074098138</v>
+        <v>428017.7075366502</v>
       </c>
       <c r="AH143">
-        <v>7565159.027170299</v>
+        <v>7565185.32293414</v>
       </c>
       <c r="AI143">
         <v>55</v>
@@ -16383,16 +16383,16 @@
         <v>1</v>
       </c>
       <c r="AE144">
-        <v>-344.4562407950133</v>
+        <v>-1686.402230510463</v>
       </c>
       <c r="AF144">
-        <v>-24.46039577099264</v>
+        <v>-41.95662853231832</v>
       </c>
       <c r="AG144">
-        <v>427399.015413205</v>
+        <v>426057.0694234895</v>
       </c>
       <c r="AH144">
-        <v>7565153.172146229</v>
+        <v>7565135.675913468</v>
       </c>
       <c r="AI144">
         <v>55</v>
@@ -16493,16 +16493,16 @@
         <v>1</v>
       </c>
       <c r="AE145">
-        <v>-218.4606982440565</v>
+        <v>868.6166398296526</v>
       </c>
       <c r="AF145">
-        <v>-510.1765871161143</v>
+        <v>-230.3215519867009</v>
       </c>
       <c r="AG145">
-        <v>427445.057986756</v>
+        <v>428532.1353248297</v>
       </c>
       <c r="AH145">
-        <v>7565116.453825884</v>
+        <v>7565396.308861013</v>
       </c>
       <c r="AI145">
         <v>55</v>
@@ -16603,16 +16603,16 @@
         <v>1</v>
       </c>
       <c r="AE146">
-        <v>-49.59573499004323</v>
+        <v>-10.72013527989883</v>
       </c>
       <c r="AF146">
-        <v>-379.0701426545911</v>
+        <v>-216.7954584033371</v>
       </c>
       <c r="AG146">
-        <v>427195.07880501</v>
+        <v>427233.9544047201</v>
       </c>
       <c r="AH146">
-        <v>7565269.083229345</v>
+        <v>7565431.357913597</v>
       </c>
       <c r="AI146">
         <v>55</v>
@@ -16713,16 +16713,16 @@
         <v>1</v>
       </c>
       <c r="AE147">
-        <v>-19.66116672492739</v>
+        <v>-425.5425017908854</v>
       </c>
       <c r="AF147">
-        <v>-38.80389356649897</v>
+        <v>-31.74013984370045</v>
       </c>
       <c r="AG147">
-        <v>427198.8541422751</v>
+        <v>426792.9728072091</v>
       </c>
       <c r="AH147">
-        <v>7565223.771761434</v>
+        <v>7565230.835515156</v>
       </c>
       <c r="AI147">
         <v>55</v>
@@ -16823,16 +16823,16 @@
         <v>1</v>
       </c>
       <c r="AE148">
-        <v>-395.2309776748025</v>
+        <v>-3916.982457258618</v>
       </c>
       <c r="AF148">
-        <v>78.30664821911159</v>
+        <v>5.115749242260611</v>
       </c>
       <c r="AG148">
-        <v>427348.2406763252</v>
+        <v>423826.4891967414</v>
       </c>
       <c r="AH148">
-        <v>7565255.939190219</v>
+        <v>7565182.748291243</v>
       </c>
       <c r="AI148">
         <v>55</v>
@@ -16933,16 +16933,16 @@
         <v>1</v>
       </c>
       <c r="AE149">
-        <v>-252.7595811714208</v>
+        <v>1129.617815119159</v>
       </c>
       <c r="AF149">
-        <v>-355.8583015303574</v>
+        <v>-213.9856080421748</v>
       </c>
       <c r="AG149">
-        <v>427410.7591038286</v>
+        <v>428793.1365001192</v>
       </c>
       <c r="AH149">
-        <v>7565270.772111469</v>
+        <v>7565412.644804957</v>
       </c>
       <c r="AI149">
         <v>55</v>
@@ -17043,16 +17043,16 @@
         <v>1</v>
       </c>
       <c r="AE150">
-        <v>-192.5558563252707</v>
+        <v>205.8528922523314</v>
       </c>
       <c r="AF150">
-        <v>-558.8424190785371</v>
+        <v>-325.2887408047068</v>
       </c>
       <c r="AG150">
-        <v>427052.1186836747</v>
+        <v>427450.5274322523</v>
       </c>
       <c r="AH150">
-        <v>7565089.310952921</v>
+        <v>7565322.864631196</v>
       </c>
       <c r="AI150">
         <v>55</v>
@@ -17153,16 +17153,16 @@
         <v>1</v>
       </c>
       <c r="AE151">
-        <v>-61.4771544361469</v>
+        <v>214.2964176430192</v>
       </c>
       <c r="AF151">
-        <v>-310.9119861149795</v>
+        <v>-187.9533151054044</v>
       </c>
       <c r="AG151">
-        <v>427157.0381545638</v>
+        <v>427432.811726643</v>
       </c>
       <c r="AH151">
-        <v>7564951.663668885</v>
+        <v>7565074.622339895</v>
       </c>
       <c r="AI151">
         <v>55</v>
@@ -17263,16 +17263,16 @@
         <v>1</v>
       </c>
       <c r="AE152">
-        <v>-224.8161958291136</v>
+        <v>-815.3919671737716</v>
       </c>
       <c r="AF152">
-        <v>-50.74047947363991</v>
+        <v>-98.89002751770307</v>
       </c>
       <c r="AG152">
-        <v>427518.6554581709</v>
+        <v>426928.0796868262</v>
       </c>
       <c r="AH152">
-        <v>7565126.892062526</v>
+        <v>7565078.742514483</v>
       </c>
       <c r="AI152">
         <v>55</v>
@@ -17373,16 +17373,16 @@
         <v>1</v>
       </c>
       <c r="AE153">
-        <v>-143.4718617885147</v>
+        <v>197.2840955992244</v>
       </c>
       <c r="AF153">
-        <v>-525.7618925716724</v>
+        <v>-332.2105569577769</v>
       </c>
       <c r="AG153">
-        <v>427520.0468232115</v>
+        <v>427860.8027805992</v>
       </c>
       <c r="AH153">
-        <v>7565100.868520427</v>
+        <v>7565294.419856042</v>
       </c>
       <c r="AI153">
         <v>55</v>
@@ -17483,16 +17483,16 @@
         <v>1</v>
       </c>
       <c r="AE154">
-        <v>125.5071109311964</v>
+        <v>70.81038121707158</v>
       </c>
       <c r="AF154">
-        <v>-203.4926763265667</v>
+        <v>-119.5773951221782</v>
       </c>
       <c r="AG154">
-        <v>421255.2449279312</v>
+        <v>421200.5481982171</v>
       </c>
       <c r="AH154">
-        <v>7573783.538708673</v>
+        <v>7573867.453989877</v>
       </c>
       <c r="AI154">
         <v>55</v>
@@ -17593,16 +17593,16 @@
         <v>1</v>
       </c>
       <c r="AE155">
-        <v>14.96182591715879</v>
+        <v>-35.01152287637548</v>
       </c>
       <c r="AF155">
-        <v>57.32293066334022</v>
+        <v>49.24299819123048</v>
       </c>
       <c r="AG155">
-        <v>421144.6996429172</v>
+        <v>421094.7262941236</v>
       </c>
       <c r="AH155">
-        <v>7574044.354315663</v>
+        <v>7574036.274383191</v>
       </c>
       <c r="AI155">
         <v>55</v>
@@ -17703,16 +17703,16 @@
         <v>1</v>
       </c>
       <c r="AE156">
-        <v>-99.05985220791534</v>
+        <v>141.5862116015519</v>
       </c>
       <c r="AF156">
-        <v>794.4248106002335</v>
+        <v>500.2383523902664</v>
       </c>
       <c r="AG156">
-        <v>424840.6237147921</v>
+        <v>425081.2697786015</v>
       </c>
       <c r="AH156">
-        <v>7577205.015292601</v>
+        <v>7576910.82883439</v>
       </c>
       <c r="AI156">
         <v>55</v>
@@ -17813,16 +17813,16 @@
         <v>1</v>
       </c>
       <c r="AE157">
-        <v>-29.44662280635358</v>
+        <v>66.44498617836977</v>
       </c>
       <c r="AF157">
-        <v>-376.9697576071272</v>
+        <v>-161.5725065414638</v>
       </c>
       <c r="AG157">
-        <v>425201.4337901936</v>
+        <v>425297.3253991784</v>
       </c>
       <c r="AH157">
-        <v>7576927.457647393</v>
+        <v>7577142.854898458</v>
       </c>
       <c r="AI157">
         <v>55</v>
@@ -17923,16 +17923,16 @@
         <v>1</v>
       </c>
       <c r="AE158">
-        <v>-31.07902985516021</v>
+        <v>398.4990233722109</v>
       </c>
       <c r="AF158">
-        <v>792.9067620996916</v>
+        <v>488.6132740241019</v>
       </c>
       <c r="AG158">
-        <v>424908.6045371448</v>
+        <v>425338.1825903722</v>
       </c>
       <c r="AH158">
-        <v>7577203.4972441</v>
+        <v>7576899.203756024</v>
       </c>
       <c r="AI158">
         <v>55</v>
@@ -18033,16 +18033,16 @@
         <v>1</v>
       </c>
       <c r="AE159">
-        <v>136.4347242192689</v>
+        <v>-105.8049513338554</v>
       </c>
       <c r="AF159">
-        <v>-519.6939638951798</v>
+        <v>-321.7203807476777</v>
       </c>
       <c r="AG159">
-        <v>425367.3151372193</v>
+        <v>425125.0754616662</v>
       </c>
       <c r="AH159">
-        <v>7576784.733441104</v>
+        <v>7576982.707024252</v>
       </c>
       <c r="AI159">
         <v>55</v>
@@ -18143,16 +18143,16 @@
         <v>1</v>
       </c>
       <c r="AE160">
-        <v>-95.8941297094414</v>
+        <v>639.7796824819616</v>
       </c>
       <c r="AF160">
-        <v>884.763823884624</v>
+        <v>461.8005541943537</v>
       </c>
       <c r="AG160">
-        <v>424843.7894372905</v>
+        <v>425579.4632494819</v>
       </c>
       <c r="AH160">
-        <v>7577295.354305885</v>
+        <v>7576872.391036195</v>
       </c>
       <c r="AI160">
         <v>55</v>
@@ -18253,16 +18253,16 @@
         <v>1</v>
       </c>
       <c r="AE161">
-        <v>-272.2654749986488</v>
+        <v>239.7765117447107</v>
       </c>
       <c r="AF161">
-        <v>-463.8704299874483</v>
+        <v>-217.8503174292963</v>
       </c>
       <c r="AG161">
-        <v>424958.6149380014</v>
+        <v>425470.6569247447</v>
       </c>
       <c r="AH161">
-        <v>7576840.556975013</v>
+        <v>7577086.57708757</v>
       </c>
       <c r="AI161">
         <v>55</v>
@@ -18363,16 +18363,16 @@
         <v>1</v>
       </c>
       <c r="AE162">
-        <v>-35.86671579335873</v>
+        <v>-0.7904600821606831</v>
       </c>
       <c r="AF162">
-        <v>971.1304642759222</v>
+        <v>397.3111836877047</v>
       </c>
       <c r="AG162">
-        <v>424903.8168512066</v>
+        <v>424938.8931069178</v>
       </c>
       <c r="AH162">
-        <v>7577381.720946277</v>
+        <v>7576807.901665688</v>
       </c>
       <c r="AI162">
         <v>55</v>
@@ -18473,16 +18473,16 @@
         <v>1</v>
       </c>
       <c r="AE163">
-        <v>-186.0283997028606</v>
+        <v>293.1941420667974</v>
       </c>
       <c r="AF163">
-        <v>-466.411150603333</v>
+        <v>-193.4348834639235</v>
       </c>
       <c r="AG163">
-        <v>425044.8520132971</v>
+        <v>425524.0745550668</v>
       </c>
       <c r="AH163">
-        <v>7576838.016254396</v>
+        <v>7577110.992521536</v>
       </c>
       <c r="AI163">
         <v>55</v>
@@ -18583,16 +18583,16 @@
         <v>1</v>
       </c>
       <c r="AE164">
-        <v>-88.85166657736075</v>
+        <v>255.6693959917701</v>
       </c>
       <c r="AF164">
-        <v>607.9047422917673</v>
+        <v>452.3685567554913</v>
       </c>
       <c r="AG164">
-        <v>424850.8319004226</v>
+        <v>425195.3529629917</v>
       </c>
       <c r="AH164">
-        <v>7577018.495224292</v>
+        <v>7576862.959038756</v>
       </c>
       <c r="AI164">
         <v>55</v>
@@ -18693,16 +18693,16 @@
         <v>1</v>
       </c>
       <c r="AE165">
-        <v>-106.0897499289774</v>
+        <v>167.9969027641956</v>
       </c>
       <c r="AF165">
-        <v>-600.481206342932</v>
+        <v>-324.0324819537427</v>
       </c>
       <c r="AG165">
-        <v>425124.790663071</v>
+        <v>425398.8773157642</v>
       </c>
       <c r="AH165">
-        <v>7576703.946198657</v>
+        <v>7576980.394923046</v>
       </c>
       <c r="AI165">
         <v>55</v>
@@ -18803,16 +18803,16 @@
         <v>1</v>
       </c>
       <c r="AE166">
-        <v>-79.45629080619949</v>
+        <v>23.36413021002578</v>
       </c>
       <c r="AF166">
-        <v>622.6583057325055</v>
+        <v>427.5519507815458</v>
       </c>
       <c r="AG166">
-        <v>424860.2272761938</v>
+        <v>424963.04769721</v>
       </c>
       <c r="AH166">
-        <v>7577033.248787733</v>
+        <v>7576838.142432782</v>
       </c>
       <c r="AI166">
         <v>55</v>
@@ -18913,16 +18913,16 @@
         <v>1</v>
       </c>
       <c r="AE167">
-        <v>14.05673147423248</v>
+        <v>88.31138218566301</v>
       </c>
       <c r="AF167">
-        <v>-444.0042158220029</v>
+        <v>-200.8529954373351</v>
       </c>
       <c r="AG167">
-        <v>425244.9371444742</v>
+        <v>425319.1917951857</v>
       </c>
       <c r="AH167">
-        <v>7576860.423189178</v>
+        <v>7577103.574409562</v>
       </c>
       <c r="AI167">
         <v>55</v>
@@ -19023,16 +19023,16 @@
         <v>1</v>
       </c>
       <c r="AE168">
-        <v>-74.74885343839456</v>
+        <v>44.95201670178045</v>
       </c>
       <c r="AF168">
-        <v>866.5437604901327</v>
+        <v>488.5128572346636</v>
       </c>
       <c r="AG168">
-        <v>424864.9347135616</v>
+        <v>424984.6355837018</v>
       </c>
       <c r="AH168">
-        <v>7577277.13424249</v>
+        <v>7576899.103339235</v>
       </c>
       <c r="AI168">
         <v>55</v>
@@ -19133,16 +19133,16 @@
         <v>1</v>
       </c>
       <c r="AE169">
-        <v>-77.44925157613184</v>
+        <v>598.3641515645825</v>
       </c>
       <c r="AF169">
-        <v>775.8897863445723</v>
+        <v>455.1658950123147</v>
       </c>
       <c r="AG169">
-        <v>424862.2343154238</v>
+        <v>425538.0477185646</v>
       </c>
       <c r="AH169">
-        <v>7577186.480268345</v>
+        <v>7576865.756377012</v>
       </c>
       <c r="AI169">
         <v>55</v>
@@ -19243,16 +19243,16 @@
         <v>1</v>
       </c>
       <c r="AE170">
-        <v>766.7977623118933</v>
+        <v>121.5578943253881</v>
       </c>
       <c r="AF170">
-        <v>111.388735832557</v>
+        <v>-236.5103194305935</v>
       </c>
       <c r="AG170">
-        <v>423711.9739043119</v>
+        <v>423066.7340363254</v>
       </c>
       <c r="AH170">
-        <v>7576283.560641833</v>
+        <v>7575935.66158657</v>
       </c>
       <c r="AI170">
         <v>55</v>
@@ -19353,16 +19353,16 @@
         <v>1</v>
       </c>
       <c r="AE171">
-        <v>777.3134864985522</v>
+        <v>124.1613672758653</v>
       </c>
       <c r="AF171">
-        <v>230.3759543457472</v>
+        <v>-190.0747398299294</v>
       </c>
       <c r="AG171">
-        <v>424564.4423964986</v>
+        <v>423911.2902772759</v>
       </c>
       <c r="AH171">
-        <v>7576361.971305346</v>
+        <v>7575941.520611171</v>
       </c>
       <c r="AI171">
         <v>55</v>
@@ -19463,16 +19463,16 @@
         <v>1</v>
       </c>
       <c r="AE172">
-        <v>-124.6098434806297</v>
+        <v>541.3454560959927</v>
       </c>
       <c r="AF172">
-        <v>-119.2918805724879</v>
+        <v>-17.28231672682685</v>
       </c>
       <c r="AG172">
-        <v>424815.0737235193</v>
+        <v>425481.029023096</v>
       </c>
       <c r="AH172">
-        <v>7576291.298601428</v>
+        <v>7576393.308165274</v>
       </c>
       <c r="AI172">
         <v>55</v>
@@ -19573,16 +19573,16 @@
         <v>1</v>
       </c>
       <c r="AE173">
-        <v>-2.886002750772953</v>
+        <v>103.966007225647</v>
       </c>
       <c r="AF173">
-        <v>1080.878291731178</v>
+        <v>408.4064904581011</v>
       </c>
       <c r="AG173">
-        <v>424819.0624712492</v>
+        <v>424925.9144812256</v>
       </c>
       <c r="AH173">
-        <v>7575900.681134731</v>
+        <v>7575228.209333458</v>
       </c>
       <c r="AI173">
         <v>55</v>
@@ -19683,16 +19683,16 @@
         <v>1</v>
       </c>
       <c r="AE174">
-        <v>-89.56181654577371</v>
+        <v>-16.684416579166</v>
       </c>
       <c r="AF174">
-        <v>-381.1579847160543</v>
+        <v>-266.0155400758794</v>
       </c>
       <c r="AG174">
-        <v>425141.3185964542</v>
+        <v>425214.1959964209</v>
       </c>
       <c r="AH174">
-        <v>7576923.269420284</v>
+        <v>7577038.411864924</v>
       </c>
       <c r="AI174">
         <v>55</v>
@@ -19793,16 +19793,16 @@
         <v>1</v>
       </c>
       <c r="AE175">
-        <v>9.990387990283679</v>
+        <v>362.7784557012716</v>
       </c>
       <c r="AF175">
-        <v>181.1309938672248</v>
+        <v>113.7245923279629</v>
       </c>
       <c r="AG175">
-        <v>424949.6739549902</v>
+        <v>425302.4620227012</v>
       </c>
       <c r="AH175">
-        <v>7576591.721475868</v>
+        <v>7576524.315074328</v>
       </c>
       <c r="AI175">
         <v>55</v>
@@ -19903,16 +19903,16 @@
         <v>1</v>
       </c>
       <c r="AE176">
-        <v>24.88989885080984</v>
+        <v>457.4894706447561</v>
       </c>
       <c r="AF176">
-        <v>765.312113891169</v>
+        <v>364.4411930944106</v>
       </c>
       <c r="AG176">
-        <v>424846.8383728508</v>
+        <v>425279.4379446447</v>
       </c>
       <c r="AH176">
-        <v>7575585.114956891</v>
+        <v>7575184.244036094</v>
       </c>
       <c r="AI176">
         <v>55</v>
@@ -20013,16 +20013,16 @@
         <v>1</v>
       </c>
       <c r="AE177">
-        <v>-159.3632471738704</v>
+        <v>46.67122144334839</v>
       </c>
       <c r="AF177">
-        <v>-478.8466816647481</v>
+        <v>-319.7139571143837</v>
       </c>
       <c r="AG177">
-        <v>425071.5171658261</v>
+        <v>425277.5516344433</v>
       </c>
       <c r="AH177">
-        <v>7576825.580723335</v>
+        <v>7576984.713447886</v>
       </c>
       <c r="AI177">
         <v>55</v>
@@ -20120,19 +20120,19 @@
         <v>510.4868494076654</v>
       </c>
       <c r="AD178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE178">
-        <v>1381.920249656395</v>
+        <v>532.1945971442939</v>
       </c>
       <c r="AF178">
-        <v>423.4007858334529</v>
+        <v>-125.5062010753868</v>
       </c>
       <c r="AG178">
-        <v>424720.6514336563</v>
+        <v>423870.9257811443</v>
       </c>
       <c r="AH178">
-        <v>7576341.887775834</v>
+        <v>7575792.980788925</v>
       </c>
       <c r="AI178">
         <v>55</v>
@@ -20233,16 +20233,16 @@
         <v>1</v>
       </c>
       <c r="AE179">
-        <v>1078.00560040587</v>
+        <v>438.6481546026369</v>
       </c>
       <c r="AF179">
-        <v>234.9913446015707</v>
+        <v>-55.93812620306429</v>
       </c>
       <c r="AG179">
-        <v>424865.1345104059</v>
+        <v>424225.7770646026</v>
       </c>
       <c r="AH179">
-        <v>7576366.586695602</v>
+        <v>7576075.657224798</v>
       </c>
       <c r="AI179">
         <v>55</v>
@@ -20343,16 +20343,16 @@
         <v>1</v>
       </c>
       <c r="AE180">
-        <v>39.16413540414682</v>
+        <v>339.4829336830277</v>
       </c>
       <c r="AF180">
-        <v>-45.2705451424096</v>
+        <v>-0.7087924005239028</v>
       </c>
       <c r="AG180">
-        <v>424978.8477024041</v>
+        <v>425279.166500683</v>
       </c>
       <c r="AH180">
-        <v>7576365.319936858</v>
+        <v>7576409.8816896</v>
       </c>
       <c r="AI180">
         <v>55</v>
@@ -20453,16 +20453,16 @@
         <v>1</v>
       </c>
       <c r="AE181">
-        <v>-69.16484380338491</v>
+        <v>-29.67090747609939</v>
       </c>
       <c r="AF181">
-        <v>809.4140573035962</v>
+        <v>450.1772596131688</v>
       </c>
       <c r="AG181">
-        <v>424752.7836301966</v>
+        <v>424792.2775665239</v>
       </c>
       <c r="AH181">
-        <v>7575629.216900303</v>
+        <v>7575269.980102613</v>
       </c>
       <c r="AI181">
         <v>55</v>
@@ -20563,16 +20563,16 @@
         <v>1</v>
       </c>
       <c r="AE182">
-        <v>-198.8349275274212</v>
+        <v>-153.4229019353686</v>
       </c>
       <c r="AF182">
-        <v>-543.6004187999631</v>
+        <v>-304.7815337295763</v>
       </c>
       <c r="AG182">
-        <v>425032.0454854726</v>
+        <v>425077.4575110647</v>
       </c>
       <c r="AH182">
-        <v>7576760.8269862</v>
+        <v>7576999.64587127</v>
       </c>
       <c r="AI182">
         <v>55</v>
@@ -20670,19 +20670,19 @@
         <v>510.4868494076654</v>
       </c>
       <c r="AD183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE183">
-        <v>1396.910463686343</v>
+        <v>520.7056638378407</v>
       </c>
       <c r="AF183">
-        <v>370.3881572334515</v>
+        <v>-123.8766745900128</v>
       </c>
       <c r="AG183">
-        <v>424735.6416476863</v>
+        <v>423859.4368478378</v>
       </c>
       <c r="AH183">
-        <v>7576288.875147234</v>
+        <v>7575794.61031541</v>
       </c>
       <c r="AI183">
         <v>55</v>
@@ -20783,16 +20783,16 @@
         <v>1</v>
       </c>
       <c r="AE184">
-        <v>426.9975386410668</v>
+        <v>217.806197845957</v>
       </c>
       <c r="AF184">
-        <v>25.9775776001768</v>
+        <v>-111.16556486728</v>
       </c>
       <c r="AG184">
-        <v>423808.1497476411</v>
+        <v>423598.958406846</v>
       </c>
       <c r="AH184">
-        <v>7576445.8376096</v>
+        <v>7576308.694467132</v>
       </c>
       <c r="AI184">
         <v>55</v>
@@ -20893,16 +20893,16 @@
         <v>1</v>
       </c>
       <c r="AE185">
-        <v>1.321689854698069</v>
+        <v>334.2609143973667</v>
       </c>
       <c r="AF185">
-        <v>-23.39976918718923</v>
+        <v>-25.32110381533672</v>
       </c>
       <c r="AG185">
-        <v>424941.0052568547</v>
+        <v>425273.9444813973</v>
       </c>
       <c r="AH185">
-        <v>7576387.190712813</v>
+        <v>7576385.269378185</v>
       </c>
       <c r="AI185">
         <v>55</v>
@@ -21003,16 +21003,16 @@
         <v>1</v>
       </c>
       <c r="AE186">
-        <v>-101.9842898381241</v>
+        <v>-105.529501678953</v>
       </c>
       <c r="AF186">
-        <v>435.3913426735165</v>
+        <v>329.3639143896441</v>
       </c>
       <c r="AG186">
-        <v>424719.9641841619</v>
+        <v>424716.418972321</v>
       </c>
       <c r="AH186">
-        <v>7575255.194185673</v>
+        <v>7575149.16675739</v>
       </c>
       <c r="AI186">
         <v>55</v>
@@ -21113,16 +21113,16 @@
         <v>1</v>
       </c>
       <c r="AE187">
-        <v>-149.5432708509926</v>
+        <v>303.3041370207222</v>
       </c>
       <c r="AF187">
-        <v>-526.9624251397784</v>
+        <v>-268.4194471413452</v>
       </c>
       <c r="AG187">
-        <v>425081.337142149</v>
+        <v>425534.1845500207</v>
       </c>
       <c r="AH187">
-        <v>7576777.46497986</v>
+        <v>7577036.007957858</v>
       </c>
       <c r="AI187">
         <v>55</v>
@@ -21220,19 +21220,19 @@
         <v>510.4868494076654</v>
       </c>
       <c r="AD188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE188">
-        <v>1225.350875289352</v>
+        <v>469.8027030318651</v>
       </c>
       <c r="AF188">
-        <v>555.5787463931786</v>
+        <v>-97.49938024173866</v>
       </c>
       <c r="AG188">
-        <v>424564.0820592893</v>
+        <v>423808.5338870318</v>
       </c>
       <c r="AH188">
-        <v>7576474.065736393</v>
+        <v>7575820.987609758</v>
       </c>
       <c r="AI188">
         <v>55</v>
@@ -21333,16 +21333,16 @@
         <v>1</v>
       </c>
       <c r="AE189">
-        <v>1030.72137483151</v>
+        <v>377.0240651872289</v>
       </c>
       <c r="AF189">
-        <v>126.7560844758373</v>
+        <v>-182.4740362622588</v>
       </c>
       <c r="AG189">
-        <v>424419.6414458315</v>
+        <v>423765.9441361872</v>
       </c>
       <c r="AH189">
-        <v>7575537.823416475</v>
+        <v>7575228.593295737</v>
       </c>
       <c r="AI189">
         <v>55</v>
@@ -21443,16 +21443,16 @@
         <v>1</v>
       </c>
       <c r="AE190">
-        <v>586.2100266191965</v>
+        <v>306.6714436784371</v>
       </c>
       <c r="AF190">
-        <v>111.7855875041157</v>
+        <v>-138.6362355112651</v>
       </c>
       <c r="AG190">
-        <v>423967.3622356192</v>
+        <v>423687.8236526785</v>
       </c>
       <c r="AH190">
-        <v>7576531.645619504</v>
+        <v>7576281.223796489</v>
       </c>
       <c r="AI190">
         <v>55</v>
@@ -21553,16 +21553,16 @@
         <v>1</v>
       </c>
       <c r="AE191">
-        <v>-23.45986115574214</v>
+        <v>-320.007436880079</v>
       </c>
       <c r="AF191">
-        <v>-52.73574564780645</v>
+        <v>-51.47025951611139</v>
       </c>
       <c r="AG191">
-        <v>424916.2237058443</v>
+        <v>424619.6761301199</v>
       </c>
       <c r="AH191">
-        <v>7576357.854736352</v>
+        <v>7576359.120222484</v>
       </c>
       <c r="AI191">
         <v>55</v>
@@ -21663,16 +21663,16 @@
         <v>1</v>
       </c>
       <c r="AE192">
-        <v>-35.93187322678794</v>
+        <v>103.0738955311261</v>
       </c>
       <c r="AF192">
-        <v>1088.005683147234</v>
+        <v>447.6989275305545</v>
       </c>
       <c r="AG192">
-        <v>424786.0166007732</v>
+        <v>424925.0223695311</v>
       </c>
       <c r="AH192">
-        <v>7575907.808526147</v>
+        <v>7575267.501770531</v>
       </c>
       <c r="AI192">
         <v>55</v>
@@ -21773,16 +21773,16 @@
         <v>1</v>
       </c>
       <c r="AE193">
-        <v>-129.3223766378704</v>
+        <v>13.04325026174036</v>
       </c>
       <c r="AF193">
-        <v>-480.311616069772</v>
+        <v>-205.0047072492905</v>
       </c>
       <c r="AG193">
-        <v>425101.5580363621</v>
+        <v>425243.9236632618</v>
       </c>
       <c r="AH193">
-        <v>7576824.11578893</v>
+        <v>7577099.422697751</v>
       </c>
       <c r="AI193">
         <v>55</v>
@@ -21880,19 +21880,19 @@
         <v>510.4868494076654</v>
       </c>
       <c r="AD194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE194">
-        <v>879.494642469618</v>
+        <v>341.8065642144414</v>
       </c>
       <c r="AF194">
-        <v>314.4966014473187</v>
+        <v>-101.9224506658894</v>
       </c>
       <c r="AG194">
-        <v>424218.2258264696</v>
+        <v>423680.5377482144</v>
       </c>
       <c r="AH194">
-        <v>7576232.983591448</v>
+        <v>7575816.564539334</v>
       </c>
       <c r="AI194">
         <v>55</v>
@@ -21993,16 +21993,16 @@
         <v>1</v>
       </c>
       <c r="AE195">
-        <v>403.6506862893007</v>
+        <v>148.8513479406212</v>
       </c>
       <c r="AF195">
-        <v>50.33558228782315</v>
+        <v>-103.7331214964098</v>
       </c>
       <c r="AG195">
-        <v>423792.5707572893</v>
+        <v>423537.7714189406</v>
       </c>
       <c r="AH195">
-        <v>7575461.402914288</v>
+        <v>7575307.334210503</v>
       </c>
       <c r="AI195">
         <v>55</v>
@@ -22103,16 +22103,16 @@
         <v>1</v>
       </c>
       <c r="AE196">
-        <v>746.0794951256726</v>
+        <v>123.6406726857699</v>
       </c>
       <c r="AF196">
-        <v>139.4763525968958</v>
+        <v>-183.4166348233297</v>
       </c>
       <c r="AG196">
-        <v>423691.2556371257</v>
+        <v>423068.8168146858</v>
       </c>
       <c r="AH196">
-        <v>7576311.648258597</v>
+        <v>7575988.755271177</v>
       </c>
       <c r="AI196">
         <v>55</v>
@@ -22213,16 +22213,16 @@
         <v>1</v>
       </c>
       <c r="AE197">
-        <v>274.9896698281638</v>
+        <v>168.2585232001376</v>
       </c>
       <c r="AF197">
-        <v>0.6041970020505537</v>
+        <v>-60.86616405306693</v>
       </c>
       <c r="AG197">
-        <v>423656.1418788282</v>
+        <v>423549.4107322001</v>
       </c>
       <c r="AH197">
-        <v>7576420.464229002</v>
+        <v>7576358.993867947</v>
       </c>
       <c r="AI197">
         <v>55</v>
@@ -22323,16 +22323,16 @@
         <v>1</v>
       </c>
       <c r="AE198">
-        <v>2.904686111228272</v>
+        <v>-16.69338947401532</v>
       </c>
       <c r="AF198">
-        <v>18.97645360695548</v>
+        <v>19.00831822915257</v>
       </c>
       <c r="AG198">
-        <v>424942.5882531112</v>
+        <v>424922.990177526</v>
       </c>
       <c r="AH198">
-        <v>7576429.566935607</v>
+        <v>7576429.59880023</v>
       </c>
       <c r="AI198">
         <v>55</v>
@@ -22433,16 +22433,16 @@
         <v>1</v>
       </c>
       <c r="AE199">
-        <v>-77.59441000962047</v>
+        <v>-26.99679075654438</v>
       </c>
       <c r="AF199">
-        <v>-363.3304737249873</v>
+        <v>-199.1712159403206</v>
       </c>
       <c r="AG199">
-        <v>425153.2860029904</v>
+        <v>425203.8836222435</v>
       </c>
       <c r="AH199">
-        <v>7576941.096931275</v>
+        <v>7577105.256189059</v>
       </c>
       <c r="AI199">
         <v>55</v>
@@ -22543,16 +22543,16 @@
         <v>1</v>
       </c>
       <c r="AE200">
-        <v>96.72478275135929</v>
+        <v>677.6633251810489</v>
       </c>
       <c r="AF200">
-        <v>380.2621007156002</v>
+        <v>279.6221014068358</v>
       </c>
       <c r="AG200">
-        <v>425036.4083497513</v>
+        <v>425617.346892181</v>
       </c>
       <c r="AH200">
-        <v>7576790.852582715</v>
+        <v>7576690.212583407</v>
       </c>
       <c r="AI200">
         <v>55</v>
@@ -22650,19 +22650,19 @@
         <v>520.6666624573991</v>
       </c>
       <c r="AD201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE201">
-        <v>1571.03965250651</v>
+        <v>139.5384417658131</v>
       </c>
       <c r="AF201">
-        <v>356.1586774586188</v>
+        <v>-209.4903169305908</v>
       </c>
       <c r="AG201">
-        <v>424909.7708365065</v>
+        <v>423478.2696257658</v>
       </c>
       <c r="AH201">
-        <v>7576274.645667459</v>
+        <v>7575708.99667307</v>
       </c>
       <c r="AI201">
         <v>55</v>
@@ -22763,16 +22763,16 @@
         <v>1</v>
       </c>
       <c r="AE202">
-        <v>85.11835979859535</v>
+        <v>-48.45262221019151</v>
       </c>
       <c r="AF202">
-        <v>323.7439937656616</v>
+        <v>104.5349623422356</v>
       </c>
       <c r="AG202">
-        <v>423937.5811487986</v>
+        <v>423804.0101667898</v>
       </c>
       <c r="AH202">
-        <v>7575931.442859766</v>
+        <v>7575712.233828343</v>
       </c>
       <c r="AI202">
         <v>55</v>
@@ -22873,16 +22873,16 @@
         <v>1</v>
       </c>
       <c r="AE203">
-        <v>880.5665014612464</v>
+        <v>392.1498720967522</v>
       </c>
       <c r="AF203">
-        <v>123.6777034230488</v>
+        <v>-117.7237211307589</v>
       </c>
       <c r="AG203">
-        <v>424269.4865724613</v>
+        <v>423781.0699430968</v>
       </c>
       <c r="AH203">
-        <v>7575534.745035423</v>
+        <v>7575293.343610869</v>
       </c>
       <c r="AI203">
         <v>55</v>
@@ -22983,16 +22983,16 @@
         <v>1</v>
       </c>
       <c r="AE204">
-        <v>466.1220560641473</v>
+        <v>191.901385773766</v>
       </c>
       <c r="AF204">
-        <v>36.96050771788421</v>
+        <v>-179.1639770365661</v>
       </c>
       <c r="AG204">
-        <v>423411.2981980641</v>
+        <v>423137.0775277738</v>
       </c>
       <c r="AH204">
-        <v>7576209.132413718</v>
+        <v>7575993.007928964</v>
       </c>
       <c r="AI204">
         <v>55</v>
@@ -23093,16 +23093,16 @@
         <v>1</v>
       </c>
       <c r="AE205">
-        <v>33.84924424364633</v>
+        <v>200.4015001537863</v>
       </c>
       <c r="AF205">
-        <v>4.001098149237997</v>
+        <v>-66.1325137890211</v>
       </c>
       <c r="AG205">
-        <v>423820.9781542437</v>
+        <v>423987.5304101538</v>
       </c>
       <c r="AH205">
-        <v>7576135.59644915</v>
+        <v>7576065.462837211</v>
       </c>
       <c r="AI205">
         <v>55</v>
@@ -23203,16 +23203,16 @@
         <v>1</v>
       </c>
       <c r="AE206">
-        <v>37.59158945939255</v>
+        <v>6.23937007518251</v>
       </c>
       <c r="AF206">
-        <v>-21.49230902494767</v>
+        <v>3.126750190730109</v>
       </c>
       <c r="AG206">
-        <v>424977.2751564594</v>
+        <v>424945.9229370751</v>
       </c>
       <c r="AH206">
-        <v>7576389.098172976</v>
+        <v>7576413.717232191</v>
       </c>
       <c r="AI206">
         <v>55</v>
@@ -23313,16 +23313,16 @@
         <v>1</v>
       </c>
       <c r="AE207">
-        <v>-79.84306279023156</v>
+        <v>40.14231400709819</v>
       </c>
       <c r="AF207">
-        <v>527.6567797094901</v>
+        <v>476.9109334649921</v>
       </c>
       <c r="AG207">
-        <v>424742.1054112097</v>
+        <v>424862.0907880071</v>
       </c>
       <c r="AH207">
-        <v>7575347.459622709</v>
+        <v>7575296.713776465</v>
       </c>
       <c r="AI207">
         <v>55</v>
@@ -23423,16 +23423,16 @@
         <v>1</v>
       </c>
       <c r="AE208">
-        <v>-193.4094904009928</v>
+        <v>49.44707511849313</v>
       </c>
       <c r="AF208">
-        <v>-416.4836316946398</v>
+        <v>-208.1189086917056</v>
       </c>
       <c r="AG208">
-        <v>425037.470922599</v>
+        <v>425280.3274881185</v>
       </c>
       <c r="AH208">
-        <v>7576887.943773305</v>
+        <v>7577096.308496308</v>
       </c>
       <c r="AI208">
         <v>55</v>
@@ -23530,19 +23530,19 @@
         <v>520.6666624573991</v>
       </c>
       <c r="AD209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE209">
-        <v>1408.348234953704</v>
+        <v>1020.488640062638</v>
       </c>
       <c r="AF209">
-        <v>478.1405961363064</v>
+        <v>-114.6863456155523</v>
       </c>
       <c r="AG209">
-        <v>424747.0794189537</v>
+        <v>424359.2198240626</v>
       </c>
       <c r="AH209">
-        <v>7576396.627586137</v>
+        <v>7575803.800644385</v>
       </c>
       <c r="AI209">
         <v>55</v>
@@ -23643,16 +23643,16 @@
         <v>1</v>
       </c>
       <c r="AE210">
-        <v>963.264125262962</v>
+        <v>772.2023005636486</v>
       </c>
       <c r="AF210">
-        <v>139.4790620968035</v>
+        <v>-99.34776320413144</v>
       </c>
       <c r="AG210">
-        <v>424815.726914263</v>
+        <v>424624.6650895636</v>
       </c>
       <c r="AH210">
-        <v>7575747.177928098</v>
+        <v>7575508.351102796</v>
       </c>
       <c r="AI210">
         <v>55</v>
@@ -23753,16 +23753,16 @@
         <v>1</v>
       </c>
       <c r="AE211">
-        <v>994.4641826760196</v>
+        <v>1070.367539871145</v>
       </c>
       <c r="AF211">
-        <v>92.09239872784396</v>
+        <v>-151.3020284233802</v>
       </c>
       <c r="AG211">
-        <v>424383.384253676</v>
+        <v>424459.2876108711</v>
       </c>
       <c r="AH211">
-        <v>7575503.159730728</v>
+        <v>7575259.765303576</v>
       </c>
       <c r="AI211">
         <v>55</v>
@@ -23863,16 +23863,16 @@
         <v>1</v>
       </c>
       <c r="AE212">
-        <v>993.5675132463688</v>
+        <v>637.0773636594352</v>
       </c>
       <c r="AF212">
-        <v>110.0190570168626</v>
+        <v>-242.000153401496</v>
       </c>
       <c r="AG212">
-        <v>423938.7436552464</v>
+        <v>423582.2535056595</v>
       </c>
       <c r="AH212">
-        <v>7576282.190963017</v>
+        <v>7575930.171752598</v>
       </c>
       <c r="AI212">
         <v>55</v>
@@ -23973,16 +23973,16 @@
         <v>1</v>
       </c>
       <c r="AE213">
-        <v>1127.866928134174</v>
+        <v>756.6460405918556</v>
       </c>
       <c r="AF213">
-        <v>142.9775431735842</v>
+        <v>-148.9385348084893</v>
       </c>
       <c r="AG213">
-        <v>424509.0191371342</v>
+        <v>424137.7982495919</v>
       </c>
       <c r="AH213">
-        <v>7576562.837575173</v>
+        <v>7576270.921497191</v>
       </c>
       <c r="AI213">
         <v>55</v>
@@ -24083,16 +24083,16 @@
         <v>1</v>
       </c>
       <c r="AE214">
-        <v>978.0129528002718</v>
+        <v>1029.835094655788</v>
       </c>
       <c r="AF214">
-        <v>49.3221279679825</v>
+        <v>-125.5159308608256</v>
       </c>
       <c r="AG214">
-        <v>424765.1418628003</v>
+        <v>424816.9640046558</v>
       </c>
       <c r="AH214">
-        <v>7576180.917478968</v>
+        <v>7576006.079420139</v>
       </c>
       <c r="AI214">
         <v>55</v>
@@ -24193,16 +24193,16 @@
         <v>1</v>
       </c>
       <c r="AE215">
-        <v>-1.373623783225627</v>
+        <v>-451.6180389361795</v>
       </c>
       <c r="AF215">
-        <v>-13.71759562120819</v>
+        <v>-1.495973821651768</v>
       </c>
       <c r="AG215">
-        <v>424938.3099432167</v>
+        <v>424488.0655280638</v>
       </c>
       <c r="AH215">
-        <v>7576396.872886379</v>
+        <v>7576409.094508179</v>
       </c>
       <c r="AI215">
         <v>55</v>
@@ -24303,16 +24303,16 @@
         <v>1</v>
       </c>
       <c r="AE216">
-        <v>-85.47700885142987</v>
+        <v>708.2618025353771</v>
       </c>
       <c r="AF216">
-        <v>911.7874035387848</v>
+        <v>450.5335972205286</v>
       </c>
       <c r="AG216">
-        <v>424736.4714651486</v>
+        <v>425530.2102765354</v>
       </c>
       <c r="AH216">
-        <v>7575731.590246539</v>
+        <v>7575270.33644022</v>
       </c>
       <c r="AI216">
         <v>55</v>
@@ -24413,16 +24413,16 @@
         <v>1</v>
       </c>
       <c r="AE217">
-        <v>-125.0660967772044</v>
+        <v>-179.8156522147905</v>
       </c>
       <c r="AF217">
-        <v>-519.411540799272</v>
+        <v>-223.8417244902965</v>
       </c>
       <c r="AG217">
-        <v>425105.8143162228</v>
+        <v>425051.0647607852</v>
       </c>
       <c r="AH217">
-        <v>7576785.015864201</v>
+        <v>7577080.585680509</v>
       </c>
       <c r="AI217">
         <v>55</v>
@@ -24520,19 +24520,19 @@
         <v>520.6666624573991</v>
       </c>
       <c r="AD218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE218">
-        <v>1382.127341941551</v>
+        <v>441.9694498062871</v>
       </c>
       <c r="AF218">
-        <v>563.8701148627745</v>
+        <v>-76.21661981770104</v>
       </c>
       <c r="AG218">
-        <v>424720.8585259415</v>
+        <v>423780.7006338062</v>
       </c>
       <c r="AH218">
-        <v>7576482.357104863</v>
+        <v>7575842.270370183</v>
       </c>
       <c r="AI218">
         <v>55</v>
@@ -24633,16 +24633,16 @@
         <v>1</v>
       </c>
       <c r="AE219">
-        <v>988.8621235289104</v>
+        <v>313.1733414580127</v>
       </c>
       <c r="AF219">
-        <v>184.3881460004819</v>
+        <v>-192.3356018709129</v>
       </c>
       <c r="AG219">
-        <v>424841.3249125289</v>
+        <v>424165.636130458</v>
       </c>
       <c r="AH219">
-        <v>7575792.087012001</v>
+        <v>7575415.363264129</v>
       </c>
       <c r="AI219">
         <v>55</v>
@@ -24743,16 +24743,16 @@
         <v>1</v>
       </c>
       <c r="AE220">
-        <v>1003.931765146388</v>
+        <v>408.6639141032272</v>
       </c>
       <c r="AF220">
-        <v>110.6804264957013</v>
+        <v>-153.8557908669179</v>
       </c>
       <c r="AG220">
-        <v>424392.8518361464</v>
+        <v>423797.5839851032</v>
       </c>
       <c r="AH220">
-        <v>7575521.747758496</v>
+        <v>7575257.211541133</v>
       </c>
       <c r="AI220">
         <v>55</v>
@@ -24853,16 +24853,16 @@
         <v>1</v>
       </c>
       <c r="AE221">
-        <v>855.408539741047</v>
+        <v>411.9749360860224</v>
       </c>
       <c r="AF221">
-        <v>122.6654118945622</v>
+        <v>-50.33528694865492</v>
       </c>
       <c r="AG221">
-        <v>424642.5374497411</v>
+        <v>424199.1038460861</v>
       </c>
       <c r="AH221">
-        <v>7576254.260762895</v>
+        <v>7576081.260064051</v>
       </c>
       <c r="AI221">
         <v>55</v>
@@ -24963,16 +24963,16 @@
         <v>1</v>
       </c>
       <c r="AE222">
-        <v>27.94138881569937</v>
+        <v>-25.76134409072224</v>
       </c>
       <c r="AF222">
-        <v>-35.62507335878954</v>
+        <v>-14.34988789367023</v>
       </c>
       <c r="AG222">
-        <v>424967.6249558157</v>
+        <v>424913.9222229092</v>
       </c>
       <c r="AH222">
-        <v>7576374.965408642</v>
+        <v>7576396.240594107</v>
       </c>
       <c r="AI222">
         <v>55</v>
@@ -25073,16 +25073,16 @@
         <v>1</v>
       </c>
       <c r="AE223">
-        <v>-64.2118757817739</v>
+        <v>37.73401172509074</v>
       </c>
       <c r="AF223">
-        <v>932.3018372790038</v>
+        <v>472.7987092763054</v>
       </c>
       <c r="AG223">
-        <v>424757.7365982182</v>
+        <v>424859.6824857251</v>
       </c>
       <c r="AH223">
-        <v>7575752.104680279</v>
+        <v>7575292.601552276</v>
       </c>
       <c r="AI223">
         <v>55</v>
@@ -25183,16 +25183,16 @@
         <v>1</v>
       </c>
       <c r="AE224">
-        <v>-179.7620208961866</v>
+        <v>-109.7995932943862</v>
       </c>
       <c r="AF224">
-        <v>-564.2636275811511</v>
+        <v>-293.8022455141581</v>
       </c>
       <c r="AG224">
-        <v>425051.1183921038</v>
+        <v>425121.0808197056</v>
       </c>
       <c r="AH224">
-        <v>7576740.163777418</v>
+        <v>7577010.625159485</v>
       </c>
       <c r="AI224">
         <v>55</v>
@@ -25293,16 +25293,16 @@
         <v>1</v>
       </c>
       <c r="AE225">
-        <v>-93.61148734954403</v>
+        <v>-104.3478447514223</v>
       </c>
       <c r="AF225">
-        <v>-570.4184140552505</v>
+        <v>-325.5656906333346</v>
       </c>
       <c r="AG225">
-        <v>427151.0630526504</v>
+        <v>427140.3266952485</v>
       </c>
       <c r="AH225">
-        <v>7565077.734957945</v>
+        <v>7565322.587681367</v>
       </c>
       <c r="AI225">
         <v>55</v>
@@ -25403,16 +25403,16 @@
         <v>1</v>
       </c>
       <c r="AE226">
-        <v>-154.7104182552274</v>
+        <v>-49.13912354602604</v>
       </c>
       <c r="AF226">
-        <v>-483.2574185684493</v>
+        <v>-372.7338765426682</v>
       </c>
       <c r="AG226">
-        <v>427063.8048907447</v>
+        <v>427169.376185454</v>
       </c>
       <c r="AH226">
-        <v>7564779.318236432</v>
+        <v>7564889.841778457</v>
       </c>
       <c r="AI226">
         <v>55</v>
@@ -25513,16 +25513,16 @@
         <v>1</v>
       </c>
       <c r="AE227">
-        <v>45.22667686467818</v>
+        <v>-76.9273367602875</v>
       </c>
       <c r="AF227">
-        <v>-102.7032701673534</v>
+        <v>-29.50117679933328</v>
       </c>
       <c r="AG227">
-        <v>427788.6983308647</v>
+        <v>427666.5443172397</v>
       </c>
       <c r="AH227">
-        <v>7565074.929271833</v>
+        <v>7565148.131365201</v>
       </c>
       <c r="AI227">
         <v>55</v>
@@ -25623,16 +25623,16 @@
         <v>1</v>
       </c>
       <c r="AE228">
-        <v>-126.241342750002</v>
+        <v>-18.44137076846077</v>
       </c>
       <c r="AF228">
-        <v>-460.3368076274258</v>
+        <v>-241.0732228488596</v>
       </c>
       <c r="AG228">
-        <v>427537.27734225</v>
+        <v>427645.0773142315</v>
       </c>
       <c r="AH228">
-        <v>7565166.293605372</v>
+        <v>7565385.557190151</v>
       </c>
       <c r="AI228">
         <v>55</v>
@@ -25733,16 +25733,16 @@
         <v>1</v>
       </c>
       <c r="AE229">
-        <v>-181.9805773190326</v>
+        <v>19.65666004823134</v>
       </c>
       <c r="AF229">
-        <v>-502.6741960516122</v>
+        <v>-261.7536687192144</v>
       </c>
       <c r="AG229">
-        <v>427062.6939626809</v>
+        <v>427264.3312000482</v>
       </c>
       <c r="AH229">
-        <v>7565145.479175949</v>
+        <v>7565386.399703281</v>
       </c>
       <c r="AI229">
         <v>55</v>
@@ -25843,16 +25843,16 @@
         <v>1</v>
       </c>
       <c r="AE230">
-        <v>-13.55825561970263</v>
+        <v>-483.2170546934199</v>
       </c>
       <c r="AF230">
-        <v>-95.50952913813435</v>
+        <v>-5.212906755229257</v>
       </c>
       <c r="AG230">
-        <v>427729.9133983803</v>
+        <v>427260.2545993066</v>
       </c>
       <c r="AH230">
-        <v>7565082.123012862</v>
+        <v>7565172.419635245</v>
       </c>
       <c r="AI230">
         <v>55</v>
@@ -25953,16 +25953,16 @@
         <v>1</v>
       </c>
       <c r="AE231">
-        <v>-164.4487202527795</v>
+        <v>163.7784669490525</v>
       </c>
       <c r="AF231">
-        <v>-526.0901453774968</v>
+        <v>-241.3709822210381</v>
       </c>
       <c r="AG231">
-        <v>427499.0699647472</v>
+        <v>427827.2971519491</v>
       </c>
       <c r="AH231">
-        <v>7565100.540267622</v>
+        <v>7565385.259430778</v>
       </c>
       <c r="AI231">
         <v>55</v>
@@ -26063,16 +26063,16 @@
         <v>1</v>
       </c>
       <c r="AE232">
-        <v>-100.4935348161926</v>
+        <v>-65.47890864756673</v>
       </c>
       <c r="AF232">
-        <v>-524.0444690041453</v>
+        <v>-316.7326276857899</v>
       </c>
       <c r="AG232">
-        <v>425130.3868781838</v>
+        <v>425165.4015043525</v>
       </c>
       <c r="AH232">
-        <v>7576780.382935995</v>
+        <v>7576987.694777314</v>
       </c>
       <c r="AI232">
         <v>55</v>
@@ -26173,16 +26173,16 @@
         <v>1</v>
       </c>
       <c r="AE233">
-        <v>-158.4267159248436</v>
+        <v>59.19114107631317</v>
       </c>
       <c r="AF233">
-        <v>-590.3644969567202</v>
+        <v>-308.5715158916003</v>
       </c>
       <c r="AG233">
-        <v>425072.4536970751</v>
+        <v>425290.0715540763</v>
       </c>
       <c r="AH233">
-        <v>7576714.062908043</v>
+        <v>7576995.855889108</v>
       </c>
       <c r="AI233">
         <v>55</v>
@@ -26283,16 +26283,16 @@
         <v>1</v>
       </c>
       <c r="AE234">
-        <v>-157.9312355970383</v>
+        <v>43.22841919775556</v>
       </c>
       <c r="AF234">
-        <v>-566.8304478556589</v>
+        <v>-300.0318702244638</v>
       </c>
       <c r="AG234">
-        <v>425072.9491774029</v>
+        <v>425274.1088321978</v>
       </c>
       <c r="AH234">
-        <v>7576737.596957144</v>
+        <v>7577004.395534775</v>
       </c>
       <c r="AI234">
         <v>55</v>
@@ -26393,16 +26393,16 @@
         <v>1</v>
       </c>
       <c r="AE235">
-        <v>-184.1374422719761</v>
+        <v>30.2238702991702</v>
       </c>
       <c r="AF235">
-        <v>-527.8125367223145</v>
+        <v>-237.7452148534779</v>
       </c>
       <c r="AG235">
-        <v>425046.742970728</v>
+        <v>425261.1042832992</v>
       </c>
       <c r="AH235">
-        <v>7576776.614868278</v>
+        <v>7577066.682190146</v>
       </c>
       <c r="AI235">
         <v>55</v>
@@ -26500,19 +26500,19 @@
         <v>773.56750348676</v>
       </c>
       <c r="AD236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE236">
-        <v>161.6065391257957</v>
+        <v>161.7210564402711</v>
       </c>
       <c r="AF236">
-        <v>268.0042900441634</v>
+        <v>-48.32757721893286</v>
       </c>
       <c r="AG236">
-        <v>423500.3377231258</v>
+        <v>423500.4522404402</v>
       </c>
       <c r="AH236">
-        <v>7576186.491280044</v>
+        <v>7575870.159412781</v>
       </c>
       <c r="AI236">
         <v>55</v>
@@ -26613,16 +26613,16 @@
         <v>1</v>
       </c>
       <c r="AE237">
-        <v>890.5221288370302</v>
+        <v>125.2027564560561</v>
       </c>
       <c r="AF237">
-        <v>279.5554914680371</v>
+        <v>-121.0404127370532</v>
       </c>
       <c r="AG237">
-        <v>424271.674337837</v>
+        <v>423506.3549654561</v>
       </c>
       <c r="AH237">
-        <v>7576699.415523468</v>
+        <v>7576298.819619263</v>
       </c>
       <c r="AI237">
         <v>55</v>
@@ -26723,16 +26723,16 @@
         <v>1</v>
       </c>
       <c r="AE238">
-        <v>393.9025357723722</v>
+        <v>234.1732943128186</v>
       </c>
       <c r="AF238">
-        <v>58.99924312274014</v>
+        <v>-31.75940191234333</v>
       </c>
       <c r="AG238">
-        <v>424181.0314457724</v>
+        <v>424021.3022043129</v>
       </c>
       <c r="AH238">
-        <v>7576190.594594123</v>
+        <v>7576099.835949088</v>
       </c>
       <c r="AI238">
         <v>55</v>
@@ -26833,16 +26833,16 @@
         <v>1</v>
       </c>
       <c r="AE239">
-        <v>-98.84407040037436</v>
+        <v>-132.7558647101387</v>
       </c>
       <c r="AF239">
-        <v>735.7340723354569</v>
+        <v>426.7758796612866</v>
       </c>
       <c r="AG239">
-        <v>425132.0363425996</v>
+        <v>425098.1245482899</v>
       </c>
       <c r="AH239">
-        <v>7578040.161477335</v>
+        <v>7577731.203284661</v>
       </c>
       <c r="AI239">
         <v>55</v>
@@ -26940,19 +26940,19 @@
         <v>773.56750348676</v>
       </c>
       <c r="AD240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE240">
-        <v>995.4122269241898</v>
+        <v>760.4362388515855</v>
       </c>
       <c r="AF240">
-        <v>491.5826348660933</v>
+        <v>-90.73299960920048</v>
       </c>
       <c r="AG240">
-        <v>424334.1434109242</v>
+        <v>424099.1674228515</v>
       </c>
       <c r="AH240">
-        <v>7576410.069624866</v>
+        <v>7575827.753990391</v>
       </c>
       <c r="AI240">
         <v>55</v>
@@ -27053,16 +27053,16 @@
         <v>1</v>
       </c>
       <c r="AE241">
-        <v>1118.536748756188</v>
+        <v>880.2741696766943</v>
       </c>
       <c r="AF241">
-        <v>51.00812875179837</v>
+        <v>-166.8368697086017</v>
       </c>
       <c r="AG241">
-        <v>424499.6889577562</v>
+        <v>424261.4263786767</v>
       </c>
       <c r="AH241">
-        <v>7576470.868160752</v>
+        <v>7576253.023162291</v>
       </c>
       <c r="AI241">
         <v>55</v>
@@ -27163,16 +27163,16 @@
         <v>1</v>
       </c>
       <c r="AE242">
-        <v>236.6632612502557</v>
+        <v>158.4523230603379</v>
       </c>
       <c r="AF242">
-        <v>15.8312905092639</v>
+        <v>-89.7744469375605</v>
       </c>
       <c r="AG242">
-        <v>424023.7921712503</v>
+        <v>423945.5812330604</v>
       </c>
       <c r="AH242">
-        <v>7576147.42664151</v>
+        <v>7576041.820904063</v>
       </c>
       <c r="AI242">
         <v>55</v>
@@ -27273,16 +27273,16 @@
         <v>1</v>
       </c>
       <c r="AE243">
-        <v>13.60718937846918</v>
+        <v>42.7603739498097</v>
       </c>
       <c r="AF243">
-        <v>-189.3570578069686</v>
+        <v>-71.68880294032257</v>
       </c>
       <c r="AG243">
-        <v>425244.4876023785</v>
+        <v>425273.6407869498</v>
       </c>
       <c r="AH243">
-        <v>7577115.070347193</v>
+        <v>7577232.738602059</v>
       </c>
       <c r="AI243">
         <v>55</v>
@@ -27380,19 +27380,19 @@
         <v>773.56750348676</v>
       </c>
       <c r="AD244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE244">
-        <v>1137.248550980179</v>
+        <v>271.4888232288241</v>
       </c>
       <c r="AF244">
-        <v>400.2654708920466</v>
+        <v>-104.6283782348806</v>
       </c>
       <c r="AG244">
-        <v>424475.9797349802</v>
+        <v>423610.2200072288</v>
       </c>
       <c r="AH244">
-        <v>7576318.752460892</v>
+        <v>7575813.858611765</v>
       </c>
       <c r="AI244">
         <v>55</v>
@@ -27493,16 +27493,16 @@
         <v>1</v>
       </c>
       <c r="AE245">
-        <v>858.2636400554911</v>
+        <v>333.0000237876197</v>
       </c>
       <c r="AF245">
-        <v>70.83447195865878</v>
+        <v>-199.2032866942286</v>
       </c>
       <c r="AG245">
-        <v>424239.4158490555</v>
+        <v>423714.1522327876</v>
       </c>
       <c r="AH245">
-        <v>7576490.694503958</v>
+        <v>7576220.656745305</v>
       </c>
       <c r="AI245">
         <v>55</v>
@@ -27603,16 +27603,16 @@
         <v>1</v>
       </c>
       <c r="AE246">
-        <v>-5.167053437635698</v>
+        <v>175.5744884227485</v>
       </c>
       <c r="AF246">
-        <v>-88.40285817724214</v>
+        <v>-49.79862434329427</v>
       </c>
       <c r="AG246">
-        <v>425225.7133595624</v>
+        <v>425406.4549014228</v>
       </c>
       <c r="AH246">
-        <v>7577216.024546823</v>
+        <v>7577254.628780656</v>
       </c>
       <c r="AI246">
         <v>55</v>
@@ -27713,16 +27713,16 @@
         <v>1</v>
       </c>
       <c r="AE247">
-        <v>461.4461816391354</v>
+        <v>145.7470458823518</v>
       </c>
       <c r="AF247">
-        <v>59.05788120185454</v>
+        <v>-160.1110376318586</v>
       </c>
       <c r="AG247">
-        <v>423842.5983906392</v>
+        <v>423526.8992548824</v>
       </c>
       <c r="AH247">
-        <v>7576478.917913201</v>
+        <v>7576259.748994368</v>
       </c>
       <c r="AI247">
         <v>55</v>
@@ -27823,16 +27823,16 @@
         <v>1</v>
       </c>
       <c r="AE248">
-        <v>1163.667064072772</v>
+        <v>794.3973621199086</v>
       </c>
       <c r="AF248">
-        <v>162.739608731221</v>
+        <v>-94.42441774247884</v>
       </c>
       <c r="AG248">
-        <v>424950.7959740728</v>
+        <v>424581.52627212</v>
       </c>
       <c r="AH248">
-        <v>7576294.334959731</v>
+        <v>7576037.170933258</v>
       </c>
       <c r="AI248">
         <v>55</v>
@@ -27933,16 +27933,16 @@
         <v>1</v>
       </c>
       <c r="AE249">
-        <v>-200.1224781270462</v>
+        <v>210.8765671713357</v>
       </c>
       <c r="AF249">
-        <v>-552.1402428389366</v>
+        <v>-298.3322507737109</v>
       </c>
       <c r="AG249">
-        <v>425030.7579348729</v>
+        <v>425441.7569801714</v>
       </c>
       <c r="AH249">
-        <v>7576752.287162161</v>
+        <v>7577006.095154226</v>
       </c>
       <c r="AI249">
         <v>55</v>
@@ -28040,19 +28040,19 @@
         <v>773.56750348676</v>
       </c>
       <c r="AD250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE250">
-        <v>1351.440185546875</v>
+        <v>217.806197845957</v>
       </c>
       <c r="AF250">
-        <v>380.6135713456618</v>
+        <v>-111.16556486728</v>
       </c>
       <c r="AG250">
-        <v>424690.1713695468</v>
+        <v>423556.5373818459</v>
       </c>
       <c r="AH250">
-        <v>7576299.100561346</v>
+        <v>7575807.321425132</v>
       </c>
       <c r="AI250">
         <v>55</v>
@@ -28153,16 +28153,16 @@
         <v>1</v>
       </c>
       <c r="AE251">
-        <v>948.4765227711042</v>
+        <v>266.1770934414642</v>
       </c>
       <c r="AF251">
-        <v>262.0243928748343</v>
+        <v>-119.9740543907214</v>
       </c>
       <c r="AG251">
-        <v>424329.6287317711</v>
+        <v>423647.3293024415</v>
       </c>
       <c r="AH251">
-        <v>7576681.884424875</v>
+        <v>7576299.885977609</v>
       </c>
       <c r="AI251">
         <v>55</v>
@@ -28263,16 +28263,16 @@
         <v>1</v>
       </c>
       <c r="AE252">
-        <v>541.7875762557169</v>
+        <v>322.9464802771413</v>
       </c>
       <c r="AF252">
-        <v>113.5891367614388</v>
+        <v>-90.7579101545299</v>
       </c>
       <c r="AG252">
-        <v>424328.9164862558</v>
+        <v>424110.0753902772</v>
       </c>
       <c r="AH252">
-        <v>7576245.184487762</v>
+        <v>7576040.837440846</v>
       </c>
       <c r="AI252">
         <v>55</v>
@@ -28373,16 +28373,16 @@
         <v>1</v>
       </c>
       <c r="AE253">
-        <v>-102.4432979220266</v>
+        <v>999.3222609483112</v>
       </c>
       <c r="AF253">
-        <v>-325.5284921066693</v>
+        <v>-133.114498396696</v>
       </c>
       <c r="AG253">
-        <v>425128.437115078</v>
+        <v>426230.2026739483</v>
       </c>
       <c r="AH253">
-        <v>7576978.898912893</v>
+        <v>7577171.312906603</v>
       </c>
       <c r="AI253">
         <v>55</v>
@@ -28480,19 +28480,19 @@
         <v>773.56750348676</v>
       </c>
       <c r="AD254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE254">
-        <v>1533.84977665654</v>
+        <v>371.7627765964286</v>
       </c>
       <c r="AF254">
-        <v>513.1197268067347</v>
+        <v>-108.1280863250317</v>
       </c>
       <c r="AG254">
-        <v>424872.5809606565</v>
+        <v>423710.4939605964</v>
       </c>
       <c r="AH254">
-        <v>7576431.606716807</v>
+        <v>7575810.358903675</v>
       </c>
       <c r="AI254">
         <v>55</v>
@@ -28593,16 +28593,16 @@
         <v>1</v>
       </c>
       <c r="AE255">
-        <v>1042.251260916292</v>
+        <v>554.8756767577823</v>
       </c>
       <c r="AF255">
-        <v>179.6182320361771</v>
+        <v>-94.42086389743248</v>
       </c>
       <c r="AG255">
-        <v>424423.4034699163</v>
+        <v>423936.0278857578</v>
       </c>
       <c r="AH255">
-        <v>7576599.478264036</v>
+        <v>7576325.439168102</v>
       </c>
       <c r="AI255">
         <v>55</v>
@@ -28703,16 +28703,16 @@
         <v>1</v>
       </c>
       <c r="AE256">
-        <v>1055.802633983758</v>
+        <v>444.601662642945</v>
       </c>
       <c r="AF256">
-        <v>148.4340412595425</v>
+        <v>-171.8366130914781</v>
       </c>
       <c r="AG256">
-        <v>424842.9315439838</v>
+        <v>424231.730572643</v>
       </c>
       <c r="AH256">
-        <v>7576280.02939226</v>
+        <v>7575959.758737909</v>
       </c>
       <c r="AI256">
         <v>55</v>
@@ -28813,16 +28813,16 @@
         <v>1</v>
       </c>
       <c r="AE257">
-        <v>-48.49494896644261</v>
+        <v>174.3567904620543</v>
       </c>
       <c r="AF257">
-        <v>-269.5334347783553</v>
+        <v>-229.2924872652444</v>
       </c>
       <c r="AG257">
-        <v>425182.3854640336</v>
+        <v>425405.237203462</v>
       </c>
       <c r="AH257">
-        <v>7577034.893970221</v>
+        <v>7577075.134917734</v>
       </c>
       <c r="AI257">
         <v>55</v>
@@ -28923,16 +28923,16 @@
         <v>1</v>
       </c>
       <c r="AE258">
-        <v>577.7942195045742</v>
+        <v>433.2234529166672</v>
       </c>
       <c r="AF258">
-        <v>4.015651747437525</v>
+        <v>-54.74718684258431</v>
       </c>
       <c r="AG258">
-        <v>421707.5320365046</v>
+        <v>421562.9612699167</v>
       </c>
       <c r="AH258">
-        <v>7573991.047036747</v>
+        <v>7573932.284198157</v>
       </c>
       <c r="AI258">
         <v>55</v>
@@ -29033,16 +29033,16 @@
         <v>1</v>
       </c>
       <c r="AE259">
-        <v>777.827919059408</v>
+        <v>835.9816597308122</v>
       </c>
       <c r="AF259">
-        <v>25.76194069355055</v>
+        <v>-49.97313424912522</v>
       </c>
       <c r="AG259">
-        <v>421907.5657360594</v>
+        <v>421965.7194767309</v>
       </c>
       <c r="AH259">
-        <v>7574012.793325693</v>
+        <v>7573937.05825075</v>
       </c>
       <c r="AI259">
         <v>55</v>
@@ -29143,16 +29143,16 @@
         <v>1</v>
       </c>
       <c r="AE260">
-        <v>677.7460412968775</v>
+        <v>793.6947609243813</v>
       </c>
       <c r="AF260">
-        <v>20.97172344649471</v>
+        <v>-24.98493923428227</v>
       </c>
       <c r="AG260">
-        <v>421807.4838582969</v>
+        <v>421923.4325779244</v>
       </c>
       <c r="AH260">
-        <v>7574008.003108446</v>
+        <v>7573962.046445766</v>
       </c>
       <c r="AI260">
         <v>55</v>
@@ -29253,16 +29253,16 @@
         <v>1</v>
       </c>
       <c r="AE261">
-        <v>831.0206612764365</v>
+        <v>1063.942133259468</v>
       </c>
       <c r="AF261">
-        <v>49.48263639811884</v>
+        <v>-75.1232412833489</v>
       </c>
       <c r="AG261">
-        <v>421960.7584782764</v>
+        <v>422193.6799502595</v>
       </c>
       <c r="AH261">
-        <v>7574036.514021398</v>
+        <v>7573911.908143717</v>
       </c>
       <c r="AI261">
         <v>55</v>
@@ -29363,16 +29363,16 @@
         <v>1</v>
       </c>
       <c r="AE262">
-        <v>788.7116144012722</v>
+        <v>1019.20456638663</v>
       </c>
       <c r="AF262">
-        <v>15.06731469626999</v>
+        <v>-68.75966976740868</v>
       </c>
       <c r="AG262">
-        <v>421918.4494314013</v>
+        <v>422148.9423833867</v>
       </c>
       <c r="AH262">
-        <v>7574002.098699696</v>
+        <v>7573918.271715232</v>
       </c>
       <c r="AI262">
         <v>55</v>
@@ -29473,16 +29473,16 @@
         <v>1</v>
       </c>
       <c r="AE263">
-        <v>717.8989677927885</v>
+        <v>434.9650121454371</v>
       </c>
       <c r="AF263">
-        <v>12.99928994575391</v>
+        <v>-70.66499669546896</v>
       </c>
       <c r="AG263">
-        <v>421847.6367847928</v>
+        <v>421564.7028291455</v>
       </c>
       <c r="AH263">
-        <v>7574000.030674946</v>
+        <v>7573916.366388304</v>
       </c>
       <c r="AI263">
         <v>55</v>
@@ -29583,16 +29583,16 @@
         <v>1</v>
       </c>
       <c r="AE264">
-        <v>1076.230053830534</v>
+        <v>380.6121326066196</v>
       </c>
       <c r="AF264">
-        <v>334.6142431542945</v>
+        <v>-155.1370999973911</v>
       </c>
       <c r="AG264">
-        <v>428294.7453628305</v>
+        <v>427599.1274416066</v>
       </c>
       <c r="AH264">
-        <v>7565597.189898155</v>
+        <v>7565107.438555003</v>
       </c>
       <c r="AI264">
         <v>55</v>
@@ -29693,16 +29693,16 @@
         <v>1</v>
       </c>
       <c r="AE265">
-        <v>-138.5657311504816</v>
+        <v>-89.84428530144712</v>
       </c>
       <c r="AF265">
-        <v>-427.6955142132889</v>
+        <v>-318.5513213082492</v>
       </c>
       <c r="AG265">
-        <v>427604.9059228495</v>
+        <v>427653.6273686985</v>
       </c>
       <c r="AH265">
-        <v>7564749.937027787</v>
+        <v>7564859.081220692</v>
       </c>
       <c r="AI265">
         <v>55</v>
@@ -29803,16 +29803,16 @@
         <v>1</v>
       </c>
       <c r="AE266">
-        <v>-114.5818332749268</v>
+        <v>-7.883406787860324</v>
       </c>
       <c r="AF266">
-        <v>-582.9117220855456</v>
+        <v>-348.6339414445182</v>
       </c>
       <c r="AG266">
-        <v>427548.9368517251</v>
+        <v>427655.6352782121</v>
       </c>
       <c r="AH266">
-        <v>7565043.718690914</v>
+        <v>7565277.996471555</v>
       </c>
       <c r="AI266">
         <v>55</v>
@@ -29913,16 +29913,16 @@
         <v>1</v>
       </c>
       <c r="AE267">
-        <v>-121.532609819307</v>
+        <v>-109.6852099112182</v>
       </c>
       <c r="AF267">
-        <v>-581.7856289139966</v>
+        <v>-325.1040805731253</v>
       </c>
       <c r="AG267">
-        <v>427123.1419301807</v>
+        <v>427134.9893300888</v>
       </c>
       <c r="AH267">
-        <v>7565066.367743086</v>
+        <v>7565323.049291427</v>
       </c>
       <c r="AI267">
         <v>55</v>
@@ -30023,16 +30023,16 @@
         <v>1</v>
       </c>
       <c r="AE268">
-        <v>258.3253166655846</v>
+        <v>782.2463044183769</v>
       </c>
       <c r="AF268">
-        <v>-205.5486507534754</v>
+        <v>-254.5993127268098</v>
       </c>
       <c r="AG268">
-        <v>427476.8406256656</v>
+        <v>428000.7616134183</v>
       </c>
       <c r="AH268">
-        <v>7565057.027004247</v>
+        <v>7565007.976342274</v>
       </c>
       <c r="AI268">
         <v>55</v>
@@ -30133,16 +30133,16 @@
         <v>1</v>
       </c>
       <c r="AE269">
-        <v>46.32042101656091</v>
+        <v>292.5014857136056</v>
       </c>
       <c r="AF269">
-        <v>-234.6765305418491</v>
+        <v>1.505706563413613</v>
       </c>
       <c r="AG269">
-        <v>427789.7920750165</v>
+        <v>428035.9731397136</v>
       </c>
       <c r="AH269">
-        <v>7564942.956011458</v>
+        <v>7565179.138248564</v>
       </c>
       <c r="AI269">
         <v>55</v>
@@ -30243,16 +30243,16 @@
         <v>1</v>
       </c>
       <c r="AE270">
-        <v>-82.0490494415979</v>
+        <v>165.9163929876298</v>
       </c>
       <c r="AF270">
-        <v>-367.0808744075506</v>
+        <v>-223.2292226746856</v>
       </c>
       <c r="AG270">
-        <v>427581.4696355584</v>
+        <v>427829.4350779877</v>
       </c>
       <c r="AH270">
-        <v>7565259.549538592</v>
+        <v>7565403.401190325</v>
       </c>
       <c r="AI270">
         <v>55</v>
@@ -30353,16 +30353,16 @@
         <v>1</v>
       </c>
       <c r="AE271">
-        <v>-118.2746499455156</v>
+        <v>97.53572706720428</v>
       </c>
       <c r="AF271">
-        <v>-589.028943900393</v>
+        <v>-338.0589004833068</v>
       </c>
       <c r="AG271">
-        <v>427126.3998900545</v>
+        <v>427342.2102670672</v>
       </c>
       <c r="AH271">
-        <v>7565059.1244281</v>
+        <v>7565310.094471517</v>
       </c>
       <c r="AI271">
         <v>55</v>
@@ -30463,16 +30463,16 @@
         <v>1</v>
       </c>
       <c r="AE272">
-        <v>596.4019314851051</v>
+        <v>930.5791979360432</v>
       </c>
       <c r="AF272">
-        <v>27.42507973688874</v>
+        <v>-71.42181192960099</v>
       </c>
       <c r="AG272">
-        <v>427814.9172404851</v>
+        <v>428149.094506936</v>
       </c>
       <c r="AH272">
-        <v>7565290.000734737</v>
+        <v>7565191.15384307</v>
       </c>
       <c r="AI272">
         <v>55</v>
@@ -30573,16 +30573,16 @@
         <v>1</v>
       </c>
       <c r="AE273">
-        <v>-103.5716887436911</v>
+        <v>123.0798615471206</v>
       </c>
       <c r="AF273">
-        <v>-407.8991651305068</v>
+        <v>-314.9892252373521</v>
       </c>
       <c r="AG273">
-        <v>427639.8999652563</v>
+        <v>427866.5515155471</v>
       </c>
       <c r="AH273">
-        <v>7564769.73337687</v>
+        <v>7564862.643316763</v>
       </c>
       <c r="AI273">
         <v>55</v>
@@ -30683,16 +30683,16 @@
         <v>1</v>
       </c>
       <c r="AE274">
-        <v>-108.092716837527</v>
+        <v>-44.82870112763541</v>
       </c>
       <c r="AF274">
-        <v>-383.4362655964818</v>
+        <v>-262.5962512559885</v>
       </c>
       <c r="AG274">
-        <v>427555.4259681625</v>
+        <v>427618.6899838724</v>
       </c>
       <c r="AH274">
-        <v>7565243.194147403</v>
+        <v>7565364.034161744</v>
       </c>
       <c r="AI274">
         <v>55</v>
@@ -30793,16 +30793,16 @@
         <v>1</v>
       </c>
       <c r="AE275">
-        <v>-150.6033548040147</v>
+        <v>-207.22799242088</v>
       </c>
       <c r="AF275">
-        <v>-635.3619825733507</v>
+        <v>-325.5382085009585</v>
       </c>
       <c r="AG275">
-        <v>427094.0711851959</v>
+        <v>427037.4465475791</v>
       </c>
       <c r="AH275">
-        <v>7565012.791389426</v>
+        <v>7565322.615163499</v>
       </c>
       <c r="AI275">
         <v>55</v>
@@ -30903,16 +30903,16 @@
         <v>1</v>
       </c>
       <c r="AE276">
-        <v>697.8461092782618</v>
+        <v>991.375529467519</v>
       </c>
       <c r="AF276">
-        <v>39.66191095735907</v>
+        <v>-74.72016241967417</v>
       </c>
       <c r="AG276">
-        <v>427916.3614182782</v>
+        <v>428209.8908384675</v>
       </c>
       <c r="AH276">
-        <v>7565302.237565958</v>
+        <v>7565187.855492581</v>
       </c>
       <c r="AI276">
         <v>55</v>
@@ -31013,16 +31013,16 @@
         <v>1</v>
       </c>
       <c r="AE277">
-        <v>-85.31820084305313</v>
+        <v>934.1590617185155</v>
       </c>
       <c r="AF277">
-        <v>-295.3485284165827</v>
+        <v>-134.1301967608117</v>
       </c>
       <c r="AG277">
-        <v>427658.1534531569</v>
+        <v>428677.6307157185</v>
       </c>
       <c r="AH277">
-        <v>7564882.284013583</v>
+        <v>7565043.50234524</v>
       </c>
       <c r="AI277">
         <v>55</v>
@@ -31123,16 +31123,16 @@
         <v>1</v>
       </c>
       <c r="AE278">
-        <v>-143.3729668696439</v>
+        <v>286.1128380799927</v>
       </c>
       <c r="AF278">
-        <v>-409.2321246374093</v>
+        <v>-236.6548241917416</v>
       </c>
       <c r="AG278">
-        <v>427520.1457181304</v>
+        <v>427949.63152308</v>
       </c>
       <c r="AH278">
-        <v>7565217.398288362</v>
+        <v>7565389.975588808</v>
       </c>
       <c r="AI278">
         <v>55</v>
@@ -31233,16 +31233,16 @@
         <v>1</v>
       </c>
       <c r="AE279">
-        <v>-82.46737866128822</v>
+        <v>-70.70790359740718</v>
       </c>
       <c r="AF279">
-        <v>-495.5352075377982</v>
+        <v>-339.5916478865208</v>
       </c>
       <c r="AG279">
-        <v>427162.2071613387</v>
+        <v>427173.9666364026</v>
       </c>
       <c r="AH279">
-        <v>7565152.618164462</v>
+        <v>7565308.561724113</v>
       </c>
       <c r="AI279">
         <v>55</v>
@@ -31343,16 +31343,16 @@
         <v>1</v>
       </c>
       <c r="AE280">
-        <v>489.4518512014106</v>
+        <v>303.0620500728043</v>
       </c>
       <c r="AF280">
-        <v>98.16659699064948</v>
+        <v>-70.98881454899725</v>
       </c>
       <c r="AG280">
-        <v>427707.9671602014</v>
+        <v>427521.5773590728</v>
       </c>
       <c r="AH280">
-        <v>7565360.742251991</v>
+        <v>7565191.586840452</v>
       </c>
       <c r="AI280">
         <v>55</v>
@@ -31453,16 +31453,16 @@
         <v>1</v>
       </c>
       <c r="AE281">
-        <v>12.6149651072066</v>
+        <v>25.88670776933862</v>
       </c>
       <c r="AF281">
-        <v>-234.7694440466344</v>
+        <v>-94.16592836204811</v>
       </c>
       <c r="AG281">
-        <v>427756.0866191072</v>
+        <v>427769.3583617694</v>
       </c>
       <c r="AH281">
-        <v>7564942.863097954</v>
+        <v>7565083.466613638</v>
       </c>
       <c r="AI281">
         <v>55</v>
@@ -31563,16 +31563,16 @@
         <v>1</v>
       </c>
       <c r="AE282">
-        <v>-99.80386302375562</v>
+        <v>204.7941140792058</v>
       </c>
       <c r="AF282">
-        <v>-383.7341779418197</v>
+        <v>-240.0111087660714</v>
       </c>
       <c r="AG282">
-        <v>427563.7148219763</v>
+        <v>427868.3127990792</v>
       </c>
       <c r="AH282">
-        <v>7565242.896235058</v>
+        <v>7565386.619304233</v>
       </c>
       <c r="AI282">
         <v>55</v>
@@ -31673,16 +31673,16 @@
         <v>1</v>
       </c>
       <c r="AE283">
-        <v>-101.9935940262397</v>
+        <v>-63.65716098471012</v>
       </c>
       <c r="AF283">
-        <v>-549.5766274492785</v>
+        <v>-336.6738102050855</v>
       </c>
       <c r="AG283">
-        <v>427142.6809459737</v>
+        <v>427181.0173790153</v>
       </c>
       <c r="AH283">
-        <v>7565098.576744551</v>
+        <v>7565311.479561795</v>
       </c>
       <c r="AI283">
         <v>55</v>
@@ -31783,16 +31783,16 @@
         <v>1</v>
       </c>
       <c r="AE284">
-        <v>185.1330785680207</v>
+        <v>277.8074121498278</v>
       </c>
       <c r="AF284">
-        <v>2.627532243860976</v>
+        <v>-64.6653402333942</v>
       </c>
       <c r="AG284">
-        <v>427403.648387568</v>
+        <v>427496.3227211498</v>
       </c>
       <c r="AH284">
-        <v>7565265.203187244</v>
+        <v>7565197.910314767</v>
       </c>
       <c r="AI284">
         <v>55</v>
@@ -31893,16 +31893,16 @@
         <v>1</v>
       </c>
       <c r="AE285">
-        <v>-134.7348279287009</v>
+        <v>-76.18312111919599</v>
       </c>
       <c r="AF285">
-        <v>-439.8239285223138</v>
+        <v>-329.4375559661963</v>
       </c>
       <c r="AG285">
-        <v>427608.7368260713</v>
+        <v>427667.2885328808</v>
       </c>
       <c r="AH285">
-        <v>7564737.808613478</v>
+        <v>7564848.194986034</v>
       </c>
       <c r="AI285">
         <v>55</v>
@@ -32003,16 +32003,16 @@
         <v>1</v>
       </c>
       <c r="AE286">
-        <v>-212.0779406813868</v>
+        <v>35.40325603086717</v>
       </c>
       <c r="AF286">
-        <v>-626.6484397444018</v>
+        <v>-253.9915926946518</v>
       </c>
       <c r="AG286">
-        <v>427032.5965993186</v>
+        <v>427280.0777960308</v>
       </c>
       <c r="AH286">
-        <v>7565021.504932255</v>
+        <v>7565394.161779305</v>
       </c>
       <c r="AI286">
         <v>55</v>
@@ -32113,16 +32113,16 @@
         <v>1</v>
       </c>
       <c r="AE287">
-        <v>819.411859019608</v>
+        <v>890.1189958048636</v>
       </c>
       <c r="AF287">
-        <v>40.12601305743537</v>
+        <v>-73.42564728849808</v>
       </c>
       <c r="AG287">
-        <v>428037.9271680196</v>
+        <v>428108.6343048048</v>
       </c>
       <c r="AH287">
-        <v>7565302.701668058</v>
+        <v>7565189.150007712</v>
       </c>
       <c r="AI287">
         <v>55</v>
@@ -32223,16 +32223,16 @@
         <v>1</v>
       </c>
       <c r="AE288">
-        <v>-55.92661040444219</v>
+        <v>371.8110733471675</v>
       </c>
       <c r="AF288">
-        <v>-153.2149690246456</v>
+        <v>-117.0473470955223</v>
       </c>
       <c r="AG288">
-        <v>427687.5450435955</v>
+        <v>428115.2827273472</v>
       </c>
       <c r="AH288">
-        <v>7565024.417572975</v>
+        <v>7565060.585194904</v>
       </c>
       <c r="AI288">
         <v>55</v>
@@ -32333,16 +32333,16 @@
         <v>1</v>
       </c>
       <c r="AE289">
-        <v>-142.4535353043845</v>
+        <v>158.52840039598</v>
       </c>
       <c r="AF289">
-        <v>-547.6200028024049</v>
+        <v>-308.9562537301816</v>
       </c>
       <c r="AG289">
-        <v>427521.0651496956</v>
+        <v>427822.047085396</v>
       </c>
       <c r="AH289">
-        <v>7565079.010410197</v>
+        <v>7565317.67415927</v>
       </c>
       <c r="AI289">
         <v>55</v>
@@ -32443,16 +32443,16 @@
         <v>1</v>
       </c>
       <c r="AE290">
-        <v>-12.79054746191943</v>
+        <v>92.95718464321048</v>
       </c>
       <c r="AF290">
-        <v>1.803226938191299</v>
+        <v>-22.1782367815826</v>
       </c>
       <c r="AG290">
-        <v>421116.9472695381</v>
+        <v>421222.6950016432</v>
       </c>
       <c r="AH290">
-        <v>7573988.834611938</v>
+        <v>7573964.853148218</v>
       </c>
       <c r="AI290">
         <v>55</v>
@@ -32553,16 +32553,16 @@
         <v>1</v>
       </c>
       <c r="AE291">
-        <v>-129.2112935027669</v>
+        <v>77.38956382686543</v>
       </c>
       <c r="AF291">
-        <v>-429.1119906322717</v>
+        <v>-167.5273214898226</v>
       </c>
       <c r="AG291">
-        <v>421000.5265234972</v>
+        <v>421207.1273808269</v>
       </c>
       <c r="AH291">
-        <v>7573557.919394367</v>
+        <v>7573819.50406351</v>
       </c>
       <c r="AI291">
         <v>55</v>
@@ -32663,16 +32663,16 @@
         <v>1</v>
       </c>
       <c r="AE292">
-        <v>-192.7446495368285</v>
+        <v>-74.71605833712748</v>
       </c>
       <c r="AF292">
-        <v>-507.8337175411915</v>
+        <v>-301.0579767491134</v>
       </c>
       <c r="AG292">
-        <v>420936.9931674632</v>
+        <v>421055.0217586629</v>
       </c>
       <c r="AH292">
-        <v>7573479.197667459</v>
+        <v>7573685.973408251</v>
       </c>
       <c r="AI292">
         <v>55</v>
@@ -32773,16 +32773,16 @@
         <v>1</v>
       </c>
       <c r="AE293">
-        <v>-114.5847806923599</v>
+        <v>34.97607415837341</v>
       </c>
       <c r="AF293">
-        <v>-351.4423738025133</v>
+        <v>-196.4815322382353</v>
       </c>
       <c r="AG293">
-        <v>421015.1530363077</v>
+        <v>421164.7138911584</v>
       </c>
       <c r="AH293">
-        <v>7573635.589011197</v>
+        <v>7573790.549852761</v>
       </c>
       <c r="AI293">
         <v>55</v>
@@ -32883,16 +32883,16 @@
         <v>1</v>
       </c>
       <c r="AE294">
-        <v>-150.6270916755106</v>
+        <v>-67.93986622910045</v>
       </c>
       <c r="AF294">
-        <v>-481.3333612147505</v>
+        <v>-246.1072320798969</v>
       </c>
       <c r="AG294">
-        <v>420979.1107253245</v>
+        <v>421061.7979507709</v>
       </c>
       <c r="AH294">
-        <v>7573505.698023785</v>
+        <v>7573740.92415292</v>
       </c>
       <c r="AI294">
         <v>55</v>
@@ -32993,16 +32993,16 @@
         <v>1</v>
       </c>
       <c r="AE295">
-        <v>-175.6885285078411</v>
+        <v>-266.4605890500715</v>
       </c>
       <c r="AF295">
-        <v>-553.5627894146706</v>
+        <v>-291.0000707765969</v>
       </c>
       <c r="AG295">
-        <v>420954.0492884922</v>
+        <v>420863.2772279499</v>
       </c>
       <c r="AH295">
-        <v>7573433.468595585</v>
+        <v>7573696.031314223</v>
       </c>
       <c r="AI295">
         <v>55</v>
@@ -33103,16 +33103,16 @@
         <v>1</v>
       </c>
       <c r="AE296">
-        <v>-196.350301513508</v>
+        <v>-7.424809366405192</v>
       </c>
       <c r="AF296">
-        <v>-534.8836792216657</v>
+        <v>-288.8733564238053</v>
       </c>
       <c r="AG296">
-        <v>420933.3875154865</v>
+        <v>421122.3130076336</v>
       </c>
       <c r="AH296">
-        <v>7573452.147705778</v>
+        <v>7573698.158028577</v>
       </c>
       <c r="AI296">
         <v>55</v>
@@ -33213,16 +33213,16 @@
         <v>1</v>
       </c>
       <c r="AE297">
-        <v>-172.3259389940916</v>
+        <v>15.20036550371816</v>
       </c>
       <c r="AF297">
-        <v>-487.510948661335</v>
+        <v>-227.4774252009878</v>
       </c>
       <c r="AG297">
-        <v>420957.411878006</v>
+        <v>421144.9381825037</v>
       </c>
       <c r="AH297">
-        <v>7573499.520436338</v>
+        <v>7573759.553959799</v>
       </c>
       <c r="AI297">
         <v>55</v>
@@ -33323,16 +33323,16 @@
         <v>1</v>
       </c>
       <c r="AE298">
-        <v>32.36194331831384</v>
+        <v>201.1296819496341</v>
       </c>
       <c r="AF298">
-        <v>-67.29480311624296</v>
+        <v>-24.02803556471774</v>
       </c>
       <c r="AG298">
-        <v>421162.0997603183</v>
+        <v>421330.8674989496</v>
       </c>
       <c r="AH298">
-        <v>7573919.736581883</v>
+        <v>7573963.003349436</v>
       </c>
       <c r="AI298">
         <v>55</v>
@@ -33433,16 +33433,16 @@
         <v>1</v>
       </c>
       <c r="AE299">
-        <v>62.03447475108601</v>
+        <v>251.1530862144291</v>
       </c>
       <c r="AF299">
-        <v>-241.8605678446462</v>
+        <v>-129.609543766695</v>
       </c>
       <c r="AG299">
-        <v>421191.7722917511</v>
+        <v>421380.8909032145</v>
       </c>
       <c r="AH299">
-        <v>7573745.170817155</v>
+        <v>7573857.421841233</v>
       </c>
       <c r="AI299">
         <v>55</v>
@@ -33543,16 +33543,16 @@
         <v>1</v>
       </c>
       <c r="AE300">
-        <v>-56.05555978245855</v>
+        <v>594.3552240338065</v>
       </c>
       <c r="AF300">
-        <v>-235.7897795920084</v>
+        <v>-162.0329670325224</v>
       </c>
       <c r="AG300">
-        <v>421073.6822572175</v>
+        <v>421724.0930410338</v>
       </c>
       <c r="AH300">
-        <v>7573751.241605408</v>
+        <v>7573824.998417967</v>
       </c>
       <c r="AI300">
         <v>55</v>
@@ -33653,16 +33653,16 @@
         <v>1</v>
       </c>
       <c r="AE301">
-        <v>33.10560757642973</v>
+        <v>397.0002425868136</v>
       </c>
       <c r="AF301">
-        <v>-251.5065297420301</v>
+        <v>-41.31240079595442</v>
       </c>
       <c r="AG301">
-        <v>421162.8434245765</v>
+        <v>421526.7380595868</v>
       </c>
       <c r="AH301">
-        <v>7573735.524855258</v>
+        <v>7573945.718984204</v>
       </c>
       <c r="AI301">
         <v>55</v>
@@ -33763,16 +33763,16 @@
         <v>1</v>
       </c>
       <c r="AE302">
-        <v>-55.97268110050135</v>
+        <v>-226.6720272045761</v>
       </c>
       <c r="AF302">
-        <v>-87.74455895385665</v>
+        <v>-9.753794434042858</v>
       </c>
       <c r="AG302">
-        <v>421073.7651358995</v>
+        <v>420903.0657897954</v>
       </c>
       <c r="AH302">
-        <v>7573899.286826046</v>
+        <v>7573977.277590565</v>
       </c>
       <c r="AI302">
         <v>55</v>
@@ -33873,16 +33873,16 @@
         <v>1</v>
       </c>
       <c r="AE303">
-        <v>3.593089972713592</v>
+        <v>-66.67758599932496</v>
       </c>
       <c r="AF303">
-        <v>-127.8255112962083</v>
+        <v>-64.6048515730547</v>
       </c>
       <c r="AG303">
-        <v>421133.3309069728</v>
+        <v>421063.0602310007</v>
       </c>
       <c r="AH303">
-        <v>7573859.205873704</v>
+        <v>7573922.426533427</v>
       </c>
       <c r="AI303">
         <v>55</v>
@@ -33983,16 +33983,16 @@
         <v>1</v>
       </c>
       <c r="AE304">
-        <v>8.256165416284164</v>
+        <v>-20.95568052947335</v>
       </c>
       <c r="AF304">
-        <v>-4.776730754379034</v>
+        <v>25.28146709143204</v>
       </c>
       <c r="AG304">
-        <v>421137.9939824163</v>
+        <v>421108.7821364705</v>
       </c>
       <c r="AH304">
-        <v>7573982.254654245</v>
+        <v>7574012.312852091</v>
       </c>
       <c r="AI304">
         <v>55</v>
@@ -34093,16 +34093,16 @@
         <v>1</v>
       </c>
       <c r="AE305">
-        <v>64.19883218379046</v>
+        <v>1002.754989072897</v>
       </c>
       <c r="AF305">
-        <v>-251.7965437820989</v>
+        <v>-59.76000178203287</v>
       </c>
       <c r="AG305">
-        <v>421193.9366491838</v>
+        <v>422132.4928060729</v>
       </c>
       <c r="AH305">
-        <v>7573735.234841218</v>
+        <v>7573927.271383218</v>
       </c>
       <c r="AI305">
         <v>55</v>
@@ -34203,16 +34203,16 @@
         <v>1</v>
       </c>
       <c r="AE306">
-        <v>-23.66848167609603</v>
+        <v>-444.390701030466</v>
       </c>
       <c r="AF306">
-        <v>-133.4008538781635</v>
+        <v>-72.4565601289972</v>
       </c>
       <c r="AG306">
-        <v>421106.0693353239</v>
+        <v>420685.3471159696</v>
       </c>
       <c r="AH306">
-        <v>7573853.630531122</v>
+        <v>7573914.574824871</v>
       </c>
       <c r="AI306">
         <v>55</v>
@@ -34313,16 +34313,16 @@
         <v>1</v>
       </c>
       <c r="AE307">
-        <v>-68.11598657769416</v>
+        <v>-75.57048675581814</v>
       </c>
       <c r="AF307">
-        <v>-131.2298850736812</v>
+        <v>-112.1580785759055</v>
       </c>
       <c r="AG307">
-        <v>421061.6218304223</v>
+        <v>421054.1673302442</v>
       </c>
       <c r="AH307">
-        <v>7573855.801499926</v>
+        <v>7573874.873306424</v>
       </c>
       <c r="AI307">
         <v>55</v>
@@ -34423,16 +34423,16 @@
         <v>1</v>
       </c>
       <c r="AE308">
-        <v>-77.75021655331658</v>
+        <v>-18.97285658870882</v>
       </c>
       <c r="AF308">
-        <v>-354.1049238776167</v>
+        <v>-220.4490020669612</v>
       </c>
       <c r="AG308">
-        <v>421051.9876004467</v>
+        <v>421110.7649604113</v>
       </c>
       <c r="AH308">
-        <v>7573632.926461122</v>
+        <v>7573766.582382933</v>
       </c>
       <c r="AI308">
         <v>55</v>
@@ -34533,16 +34533,16 @@
         <v>1</v>
       </c>
       <c r="AE309">
-        <v>-23.78253724765789</v>
+        <v>483.8884496607754</v>
       </c>
       <c r="AF309">
-        <v>-282.0306231605723</v>
+        <v>-99.18157107217247</v>
       </c>
       <c r="AG309">
-        <v>421105.9552797524</v>
+        <v>421613.6262666608</v>
       </c>
       <c r="AH309">
-        <v>7573705.00076184</v>
+        <v>7573887.849813928</v>
       </c>
       <c r="AI309">
         <v>55</v>
@@ -34643,16 +34643,16 @@
         <v>1</v>
       </c>
       <c r="AE310">
-        <v>-61.87580847055187</v>
+        <v>306.5126810517572</v>
       </c>
       <c r="AF310">
-        <v>-401.1164067684715</v>
+        <v>-237.5732406944828</v>
       </c>
       <c r="AG310">
-        <v>421067.8620085295</v>
+        <v>421436.2504980518</v>
       </c>
       <c r="AH310">
-        <v>7573585.914978231</v>
+        <v>7573749.458144305</v>
       </c>
       <c r="AI310">
         <v>55</v>
@@ -34753,16 +34753,16 @@
         <v>1</v>
       </c>
       <c r="AE311">
-        <v>-63.35528372448624</v>
+        <v>259.1314346272242</v>
       </c>
       <c r="AF311">
-        <v>-366.7099453295629</v>
+        <v>-205.5363257754902</v>
       </c>
       <c r="AG311">
-        <v>421066.3825332755</v>
+        <v>421388.8692516272</v>
       </c>
       <c r="AH311">
-        <v>7573620.32143967</v>
+        <v>7573781.495059225</v>
       </c>
       <c r="AI311">
         <v>55</v>
@@ -34863,16 +34863,16 @@
         <v>1</v>
       </c>
       <c r="AE312">
-        <v>-61.6634518146019</v>
+        <v>187.2789095929147</v>
       </c>
       <c r="AF312">
-        <v>-340.5206386327484</v>
+        <v>-174.9231740998731</v>
       </c>
       <c r="AG312">
-        <v>421068.0743651854</v>
+        <v>421317.0167265929</v>
       </c>
       <c r="AH312">
-        <v>7573646.510746367</v>
+        <v>7573812.1082109</v>
       </c>
       <c r="AI312">
         <v>55</v>
@@ -34973,16 +34973,16 @@
         <v>1</v>
       </c>
       <c r="AE313">
-        <v>-141.9945133463217</v>
+        <v>-82.96808414856868</v>
       </c>
       <c r="AF313">
-        <v>-484.9510146200298</v>
+        <v>-331.7384801506412</v>
       </c>
       <c r="AG313">
-        <v>420987.7433036537</v>
+        <v>421046.7697328514</v>
       </c>
       <c r="AH313">
-        <v>7573502.08037038</v>
+        <v>7573655.292904849</v>
       </c>
       <c r="AI313">
         <v>55</v>
@@ -35083,16 +35083,16 @@
         <v>1</v>
       </c>
       <c r="AE314">
-        <v>4.073767100589436</v>
+        <v>491.9519778619966</v>
       </c>
       <c r="AF314">
-        <v>-266.6441128550696</v>
+        <v>-31.35294520707608</v>
       </c>
       <c r="AG314">
-        <v>421133.8115841006</v>
+        <v>421621.689794862</v>
       </c>
       <c r="AH314">
-        <v>7573720.387272145</v>
+        <v>7573955.678439793</v>
       </c>
       <c r="AI314">
         <v>55</v>
@@ -35193,16 +35193,16 @@
         <v>1</v>
       </c>
       <c r="AE315">
-        <v>-14.034676011777</v>
+        <v>388.9274916224663</v>
       </c>
       <c r="AF315">
-        <v>-279.8646128654576</v>
+        <v>-95.79453652979724</v>
       </c>
       <c r="AG315">
-        <v>421115.7031409882</v>
+        <v>421518.6653086225</v>
       </c>
       <c r="AH315">
-        <v>7573707.166772135</v>
+        <v>7573891.23684847</v>
       </c>
       <c r="AI315">
         <v>55</v>
@@ -35300,19 +35300,19 @@
         <v>36.22153763193637</v>
       </c>
       <c r="AD316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE316">
-        <v>1261.524475097656</v>
+        <v>405.7559095067228</v>
       </c>
       <c r="AF316">
-        <v>548.3384754060255</v>
+        <v>-71.6047731195933</v>
       </c>
       <c r="AG316">
-        <v>424600.2556590976</v>
+        <v>423744.4870935067</v>
       </c>
       <c r="AH316">
-        <v>7576466.825465406</v>
+        <v>7575846.88221688</v>
       </c>
       <c r="AI316">
         <v>55</v>
@@ -35413,16 +35413,16 @@
         <v>1</v>
       </c>
       <c r="AE317">
-        <v>1051.856529447851</v>
+        <v>388.43840882673</v>
       </c>
       <c r="AF317">
-        <v>108.1759045506788</v>
+        <v>-173.122453910425</v>
       </c>
       <c r="AG317">
-        <v>424904.3193184478</v>
+        <v>424240.9011978267</v>
       </c>
       <c r="AH317">
-        <v>7575715.874770551</v>
+        <v>7575434.57641209</v>
       </c>
       <c r="AI317">
         <v>55</v>
@@ -35523,16 +35523,16 @@
         <v>1</v>
       </c>
       <c r="AE318">
-        <v>217.5771855699433</v>
+        <v>191.0923060487305</v>
       </c>
       <c r="AF318">
-        <v>24.61155736365562</v>
+        <v>-118.0666437519309</v>
       </c>
       <c r="AG318">
-        <v>423606.49725657</v>
+        <v>423580.0123770487</v>
       </c>
       <c r="AH318">
-        <v>7575435.678889363</v>
+        <v>7575293.000688247</v>
       </c>
       <c r="AI318">
         <v>55</v>
@@ -35633,16 +35633,16 @@
         <v>1</v>
       </c>
       <c r="AE319">
-        <v>415.9623818541282</v>
+        <v>239.4528371426214</v>
       </c>
       <c r="AF319">
-        <v>-15.23062380265551</v>
+        <v>-59.9019476977528</v>
       </c>
       <c r="AG319">
-        <v>423361.1385238541</v>
+        <v>423184.6289791426</v>
       </c>
       <c r="AH319">
-        <v>7576156.941282197</v>
+        <v>7576112.269958302</v>
       </c>
       <c r="AI319">
         <v>55</v>
@@ -35743,16 +35743,16 @@
         <v>1</v>
       </c>
       <c r="AE320">
-        <v>775.4389539955934</v>
+        <v>321.3030144171286</v>
       </c>
       <c r="AF320">
-        <v>167.248148792493</v>
+        <v>-105.6510554873432</v>
       </c>
       <c r="AG320">
-        <v>424156.5911629956</v>
+        <v>423702.4552234171</v>
       </c>
       <c r="AH320">
-        <v>7576587.108180792</v>
+        <v>7576314.208976512</v>
       </c>
       <c r="AI320">
         <v>55</v>
@@ -35853,16 +35853,16 @@
         <v>1</v>
       </c>
       <c r="AE321">
-        <v>-75.39211462178991</v>
+        <v>33.3182332169189</v>
       </c>
       <c r="AF321">
-        <v>674.1163446472528</v>
+        <v>459.5284314692109</v>
       </c>
       <c r="AG321">
-        <v>424746.5563593782</v>
+        <v>424855.2667072169</v>
       </c>
       <c r="AH321">
-        <v>7575493.919187647</v>
+        <v>7575279.331274469</v>
       </c>
       <c r="AI321">
         <v>55</v>
@@ -35963,16 +35963,16 @@
         <v>1</v>
       </c>
       <c r="AE322">
-        <v>-110.2249405412374</v>
+        <v>-25.08887413194517</v>
       </c>
       <c r="AF322">
-        <v>-491.1782762027889</v>
+        <v>-422.3003012796017</v>
       </c>
       <c r="AG322">
-        <v>425120.6554724587</v>
+        <v>425205.791538868</v>
       </c>
       <c r="AH322">
-        <v>7576813.249128797</v>
+        <v>7576882.12710372</v>
       </c>
       <c r="AI322">
         <v>55</v>
@@ -36070,19 +36070,19 @@
         <v>36.22153763193637</v>
       </c>
       <c r="AD323">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE323">
-        <v>1139.674969708478</v>
+        <v>1242.17083922822</v>
       </c>
       <c r="AF323">
-        <v>208.1373065112578</v>
+        <v>-108.8813959136311</v>
       </c>
       <c r="AG323">
-        <v>424478.4061537085</v>
+        <v>424580.9020232282</v>
       </c>
       <c r="AH323">
-        <v>7576126.624296512</v>
+        <v>7575809.605594086</v>
       </c>
       <c r="AI323">
         <v>55</v>
@@ -36183,16 +36183,16 @@
         <v>1</v>
       </c>
       <c r="AE324">
-        <v>1161.523332636449</v>
+        <v>936.1272352963202</v>
       </c>
       <c r="AF324">
-        <v>68.50912304266592</v>
+        <v>-148.0708674411008</v>
       </c>
       <c r="AG324">
-        <v>425013.9861216365</v>
+        <v>424788.5900242963</v>
       </c>
       <c r="AH324">
-        <v>7575676.207989043</v>
+        <v>7575459.62799856</v>
       </c>
       <c r="AI324">
         <v>55</v>
@@ -36293,16 +36293,16 @@
         <v>1</v>
       </c>
       <c r="AE325">
-        <v>981.545876136866</v>
+        <v>800.9655316173282</v>
       </c>
       <c r="AF325">
-        <v>137.3889791472155</v>
+        <v>-123.0116727556997</v>
       </c>
       <c r="AG325">
-        <v>424370.4659471369</v>
+        <v>424189.8856026173</v>
       </c>
       <c r="AH325">
-        <v>7575548.456311147</v>
+        <v>7575288.055659244</v>
       </c>
       <c r="AI325">
         <v>55</v>
@@ -36403,16 +36403,16 @@
         <v>1</v>
       </c>
       <c r="AE326">
-        <v>981.5770638740252</v>
+        <v>294.4227511356177</v>
       </c>
       <c r="AF326">
-        <v>312.4382049323395</v>
+        <v>-223.4171407214665</v>
       </c>
       <c r="AG326">
-        <v>423927.6949248741</v>
+        <v>423240.5406121356</v>
       </c>
       <c r="AH326">
-        <v>7575986.361159932</v>
+        <v>7575450.505814278</v>
       </c>
       <c r="AI326">
         <v>55</v>
@@ -36513,16 +36513,16 @@
         <v>1</v>
       </c>
       <c r="AE327">
-        <v>1012.420105859162</v>
+        <v>998.0266183042228</v>
       </c>
       <c r="AF327">
-        <v>69.79707306682961</v>
+        <v>-113.8337875044186</v>
       </c>
       <c r="AG327">
-        <v>423957.5962478592</v>
+        <v>423943.2027603042</v>
       </c>
       <c r="AH327">
-        <v>7576241.968979067</v>
+        <v>7576058.338118495</v>
       </c>
       <c r="AI327">
         <v>55</v>
@@ -36623,16 +36623,16 @@
         <v>1</v>
       </c>
       <c r="AE328">
-        <v>1003.117640040392</v>
+        <v>1065.969908906278</v>
       </c>
       <c r="AF328">
-        <v>125.4764563677549</v>
+        <v>-86.72841129965313</v>
       </c>
       <c r="AG328">
-        <v>424384.2698490404</v>
+        <v>424447.1221179063</v>
       </c>
       <c r="AH328">
-        <v>7576545.336488367</v>
+        <v>7576333.1316207</v>
       </c>
       <c r="AI328">
         <v>55</v>
@@ -36733,16 +36733,16 @@
         <v>1</v>
       </c>
       <c r="AE329">
-        <v>1048.487113249654</v>
+        <v>601.6339472594786</v>
       </c>
       <c r="AF329">
-        <v>119.2223286217782</v>
+        <v>-213.4218622744912</v>
       </c>
       <c r="AG329">
-        <v>424835.6160232497</v>
+        <v>424388.7628572595</v>
       </c>
       <c r="AH329">
-        <v>7576250.817679622</v>
+        <v>7575918.173488726</v>
       </c>
       <c r="AI329">
         <v>55</v>
@@ -36843,16 +36843,16 @@
         <v>1</v>
       </c>
       <c r="AE330">
-        <v>-74.01761285269559</v>
+        <v>32.97931238086822</v>
       </c>
       <c r="AF330">
-        <v>1013.014847040686</v>
+        <v>450.6060996111939</v>
       </c>
       <c r="AG330">
-        <v>424747.9308611473</v>
+        <v>424854.9277863809</v>
       </c>
       <c r="AH330">
-        <v>7575832.817690041</v>
+        <v>7575270.408942611</v>
       </c>
       <c r="AI330">
         <v>55</v>
@@ -36950,19 +36950,19 @@
         <v>36.22153763193637</v>
       </c>
       <c r="AD331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE331">
-        <v>1052.156647293656</v>
+        <v>1159.468958302508</v>
       </c>
       <c r="AF331">
-        <v>131.4048618672835</v>
+        <v>-119.1182276243211</v>
       </c>
       <c r="AG331">
-        <v>424390.8878312936</v>
+        <v>424498.2001423025</v>
       </c>
       <c r="AH331">
-        <v>7576049.891851868</v>
+        <v>7575799.368762376</v>
       </c>
       <c r="AI331">
         <v>55</v>
@@ -37063,16 +37063,16 @@
         <v>1</v>
       </c>
       <c r="AE332">
-        <v>622.529986851736</v>
+        <v>1158.159361129226</v>
       </c>
       <c r="AF332">
-        <v>100.8404077936803</v>
+        <v>-161.5205551337021</v>
       </c>
       <c r="AG332">
-        <v>424474.9927758517</v>
+        <v>425010.6221501292</v>
       </c>
       <c r="AH332">
-        <v>7575708.539273794</v>
+        <v>7575446.178310866</v>
       </c>
       <c r="AI332">
         <v>55</v>
@@ -37173,16 +37173,16 @@
         <v>1</v>
       </c>
       <c r="AE333">
-        <v>1025.405140166644</v>
+        <v>1002.390505913169</v>
       </c>
       <c r="AF333">
-        <v>68.74464044498154</v>
+        <v>-89.05394005378976</v>
       </c>
       <c r="AG333">
-        <v>424414.3252111666</v>
+        <v>424391.3105769132</v>
       </c>
       <c r="AH333">
-        <v>7575479.811972445</v>
+        <v>7575322.013391946</v>
       </c>
       <c r="AI333">
         <v>55</v>
@@ -37283,16 +37283,16 @@
         <v>1</v>
       </c>
       <c r="AE334">
-        <v>1131.764971523355</v>
+        <v>797.7854161925978</v>
       </c>
       <c r="AF334">
-        <v>116.7332749543348</v>
+        <v>-135.3208958925955</v>
       </c>
       <c r="AG334">
-        <v>424076.9411135234</v>
+        <v>423742.9615581926</v>
       </c>
       <c r="AH334">
-        <v>7576288.905180954</v>
+        <v>7576036.851010107</v>
       </c>
       <c r="AI334">
         <v>55</v>
@@ -37393,16 +37393,16 @@
         <v>1</v>
       </c>
       <c r="AE335">
-        <v>1140.050459837982</v>
+        <v>470.3102698198907</v>
       </c>
       <c r="AF335">
-        <v>101.0771585565513</v>
+        <v>-144.7614391194756</v>
       </c>
       <c r="AG335">
-        <v>424521.202668838</v>
+        <v>423851.4624788199</v>
       </c>
       <c r="AH335">
-        <v>7576520.937190556</v>
+        <v>7576275.09859288</v>
       </c>
       <c r="AI335">
         <v>55</v>
@@ -37503,16 +37503,16 @@
         <v>1</v>
       </c>
       <c r="AE336">
-        <v>1114.919678464997</v>
+        <v>440.1662042809483</v>
       </c>
       <c r="AF336">
-        <v>159.7564973275314</v>
+        <v>-70.26536098560547</v>
       </c>
       <c r="AG336">
-        <v>424902.048588465</v>
+        <v>424227.295114281</v>
       </c>
       <c r="AH336">
-        <v>7576291.351848328</v>
+        <v>7576061.329990014</v>
       </c>
       <c r="AI336">
         <v>55</v>
@@ -37613,16 +37613,16 @@
         <v>1</v>
       </c>
       <c r="AE337">
-        <v>-87.09016587907236</v>
+        <v>162.2510128437116</v>
       </c>
       <c r="AF337">
-        <v>1001.221861432273</v>
+        <v>478.920839492052</v>
       </c>
       <c r="AG337">
-        <v>424734.8583081209</v>
+        <v>424984.1994868437</v>
       </c>
       <c r="AH337">
-        <v>7575821.024704432</v>
+        <v>7575298.723682492</v>
       </c>
       <c r="AI337">
         <v>55</v>
@@ -37723,16 +37723,16 @@
         <v>1</v>
       </c>
       <c r="AE338">
-        <v>38.7017071343751</v>
+        <v>-207.0690981974253</v>
       </c>
       <c r="AF338">
-        <v>-67.8886089685861</v>
+        <v>13.67364878668624</v>
       </c>
       <c r="AG338">
-        <v>421168.4395241344</v>
+        <v>420922.6687188026</v>
       </c>
       <c r="AH338">
-        <v>7573919.142776031</v>
+        <v>7574000.705033787</v>
       </c>
       <c r="AI338">
         <v>55</v>
@@ -37833,16 +37833,16 @@
         <v>1</v>
       </c>
       <c r="AE339">
-        <v>0.1638160786163012</v>
+        <v>-829.2161006491949</v>
       </c>
       <c r="AF339">
-        <v>-100.3161131875264</v>
+        <v>1.940289540011184</v>
       </c>
       <c r="AG339">
-        <v>421129.9016330786</v>
+        <v>420300.5217163508</v>
       </c>
       <c r="AH339">
-        <v>7573886.715271812</v>
+        <v>7573988.97167454</v>
       </c>
       <c r="AI339">
         <v>55</v>
@@ -37943,16 +37943,16 @@
         <v>1</v>
       </c>
       <c r="AE340">
-        <v>7.077693808118598</v>
+        <v>-631.8188209135851</v>
       </c>
       <c r="AF340">
-        <v>-57.31955065805828</v>
+        <v>-11.84738139113274</v>
       </c>
       <c r="AG340">
-        <v>421136.8155108081</v>
+        <v>420497.9189960864</v>
       </c>
       <c r="AH340">
-        <v>7573929.711834342</v>
+        <v>7573975.184003608</v>
       </c>
       <c r="AI340">
         <v>55</v>
@@ -38053,16 +38053,16 @@
         <v>1</v>
       </c>
       <c r="AE341">
-        <v>42.68981278576765</v>
+        <v>-157.4161644821477</v>
       </c>
       <c r="AF341">
-        <v>-95.76000721011992</v>
+        <v>-3.022965690095813</v>
       </c>
       <c r="AG341">
-        <v>421172.4276297858</v>
+        <v>420972.3216525179</v>
       </c>
       <c r="AH341">
-        <v>7573891.27137779</v>
+        <v>7573984.00841931</v>
       </c>
       <c r="AI341">
         <v>55</v>
@@ -38163,16 +38163,16 @@
         <v>1</v>
       </c>
       <c r="AE342">
-        <v>52.47740779936245</v>
+        <v>-107.2820488750857</v>
       </c>
       <c r="AF342">
-        <v>-76.33161718301299</v>
+        <v>-34.43271722213808</v>
       </c>
       <c r="AG342">
-        <v>421182.2152247994</v>
+        <v>421022.455768125</v>
       </c>
       <c r="AH342">
-        <v>7573910.699767817</v>
+        <v>7573952.598667778</v>
       </c>
       <c r="AI342">
         <v>55</v>
@@ -38273,16 +38273,16 @@
         <v>1</v>
       </c>
       <c r="AE343">
-        <v>111.6057200285126</v>
+        <v>825.5512664674162</v>
       </c>
       <c r="AF343">
-        <v>-82.4117393700195</v>
+        <v>-39.96589957283236</v>
       </c>
       <c r="AG343">
-        <v>421241.3435370285</v>
+        <v>421955.2890834674</v>
       </c>
       <c r="AH343">
-        <v>7573904.61964563</v>
+        <v>7573947.065485427</v>
       </c>
       <c r="AI343">
         <v>55</v>
